--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation 29.04.2021.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation 29.04.2021.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="300">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -865,9 +865,6 @@
     <t>Z30pro</t>
   </si>
   <si>
-    <t>Green Colour</t>
-  </si>
-  <si>
     <t>Mix COLOUR</t>
   </si>
   <si>
@@ -1553,55 +1550,10 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,6 +1583,51 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1949,7 +1946,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E175" sqref="E175"/>
+      <selection pane="bottomRight" activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1966,51 +1963,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:223" ht="23.25" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:223" ht="24.75" customHeight="1" thickBot="1">
       <c r="A2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="49"/>
+      <c r="B2" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="61"/>
       <c r="D2" s="44" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="37">
         <f ca="1">TODAY()</f>
-        <v>44335</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="3" spans="1:223" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:223" ht="15" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="46" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="65" t="s">
-        <v>282</v>
+      <c r="A5" s="50" t="s">
+        <v>281</v>
       </c>
       <c r="B5" s="39">
         <v>6610.7</v>
@@ -2074,7 +2071,7 @@
       <c r="BB5" s="14"/>
     </row>
     <row r="6" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="50" t="s">
         <v>220</v>
       </c>
       <c r="B6" s="39">
@@ -2139,7 +2136,7 @@
       <c r="BB6" s="14"/>
     </row>
     <row r="7" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="50" t="s">
         <v>192</v>
       </c>
       <c r="B7" s="39">
@@ -2371,7 +2368,7 @@
       <c r="HO7" s="15"/>
     </row>
     <row r="8" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="39">
@@ -2603,7 +2600,7 @@
       <c r="HO8" s="15"/>
     </row>
     <row r="9" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="50" t="s">
         <v>156</v>
       </c>
       <c r="B9" s="39">
@@ -2666,7 +2663,7 @@
       <c r="BB9" s="14"/>
     </row>
     <row r="10" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="50" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="39">
@@ -2729,7 +2726,7 @@
       <c r="BB10" s="14"/>
     </row>
     <row r="11" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="50" t="s">
         <v>170</v>
       </c>
       <c r="B11" s="39">
@@ -2793,17 +2790,19 @@
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
     </row>
-    <row r="12" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:223" ht="15" customHeight="1">
+      <c r="A12" s="50" t="s">
         <v>248</v>
       </c>
       <c r="B12" s="39">
         <v>896.24</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17">
+        <v>40</v>
+      </c>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35849.599999999999</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>269</v>
@@ -2859,7 +2858,7 @@
       <c r="BB12" s="14"/>
     </row>
     <row r="13" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="50" t="s">
         <v>254</v>
       </c>
       <c r="B13" s="39">
@@ -2922,7 +2921,7 @@
       <c r="BB13" s="14"/>
     </row>
     <row r="14" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="50" t="s">
         <v>219</v>
       </c>
       <c r="B14" s="39">
@@ -2985,7 +2984,7 @@
       <c r="BB14" s="14"/>
     </row>
     <row r="15" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="50" t="s">
         <v>225</v>
       </c>
       <c r="B15" s="39">
@@ -3048,7 +3047,7 @@
       <c r="BB15" s="14"/>
     </row>
     <row r="16" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="50" t="s">
         <v>236</v>
       </c>
       <c r="B16" s="39">
@@ -3110,19 +3109,17 @@
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
     </row>
-    <row r="17" spans="1:223" ht="15" customHeight="1">
-      <c r="A17" s="65" t="s">
-        <v>285</v>
+    <row r="17" spans="1:223" ht="15" hidden="1" customHeight="1">
+      <c r="A17" s="50" t="s">
+        <v>284</v>
       </c>
       <c r="B17" s="39">
         <v>916.29</v>
       </c>
-      <c r="C17" s="17">
-        <v>100</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
-        <v>91629</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>269</v>
@@ -3177,19 +3174,17 @@
       <c r="BA17" s="14"/>
       <c r="BB17" s="14"/>
     </row>
-    <row r="18" spans="1:223" ht="15" customHeight="1">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:223" ht="15" hidden="1" customHeight="1">
+      <c r="A18" s="50" t="s">
         <v>263</v>
       </c>
       <c r="B18" s="39">
         <v>916.29</v>
       </c>
-      <c r="C18" s="17">
-        <v>100</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>91629</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
@@ -3245,7 +3240,7 @@
       <c r="BB18" s="14"/>
     </row>
     <row r="19" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="50" t="s">
         <v>158</v>
       </c>
       <c r="B19" s="39">
@@ -3308,18 +3303,18 @@
       <c r="BB19" s="14"/>
     </row>
     <row r="20" spans="1:223" ht="15" customHeight="1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="50" t="s">
         <v>256</v>
       </c>
       <c r="B20" s="39">
         <v>1032.58</v>
       </c>
       <c r="C20" s="17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>103258</v>
+        <v>20651.599999999999</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>269</v>
@@ -3340,7 +3335,7 @@
       <c r="BB20" s="14"/>
     </row>
     <row r="21" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="39">
@@ -3405,7 +3400,7 @@
       <c r="BB21" s="14"/>
     </row>
     <row r="22" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="50" t="s">
         <v>155</v>
       </c>
       <c r="B22" s="39">
@@ -3637,7 +3632,7 @@
       <c r="HO22" s="15"/>
     </row>
     <row r="23" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="50" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="39">
@@ -3869,7 +3864,7 @@
       <c r="HO23" s="15"/>
     </row>
     <row r="24" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="50" t="s">
         <v>183</v>
       </c>
       <c r="B24" s="39">
@@ -4102,19 +4097,17 @@
       <c r="HN24" s="15"/>
       <c r="HO24" s="15"/>
     </row>
-    <row r="25" spans="1:223" ht="15" customHeight="1">
-      <c r="A25" s="65" t="s">
+    <row r="25" spans="1:223" ht="15" hidden="1" customHeight="1">
+      <c r="A25" s="50" t="s">
         <v>273</v>
       </c>
       <c r="B25" s="39">
         <v>969.42</v>
       </c>
-      <c r="C25" s="17">
-        <v>160</v>
-      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="18">
         <f t="shared" si="0"/>
-        <v>155107.19999999998</v>
+        <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>269</v>
@@ -4339,7 +4332,7 @@
       <c r="HO25" s="15"/>
     </row>
     <row r="26" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="50" t="s">
         <v>224</v>
       </c>
       <c r="B26" s="39">
@@ -4571,7 +4564,7 @@
       <c r="HO26" s="15"/>
     </row>
     <row r="27" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="50" t="s">
         <v>244</v>
       </c>
       <c r="B27" s="39">
@@ -4803,7 +4796,7 @@
       <c r="HO27" s="15"/>
     </row>
     <row r="28" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="50" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="39">
@@ -5035,7 +5028,7 @@
       <c r="HO28" s="15"/>
     </row>
     <row r="29" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="39">
@@ -5267,7 +5260,7 @@
       <c r="HO29" s="15"/>
     </row>
     <row r="30" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="50" t="s">
         <v>223</v>
       </c>
       <c r="B30" s="39">
@@ -5501,7 +5494,7 @@
       <c r="HO30" s="15"/>
     </row>
     <row r="31" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="50" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="39">
@@ -5733,7 +5726,7 @@
       <c r="HO31" s="15"/>
     </row>
     <row r="32" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="50" t="s">
         <v>195</v>
       </c>
       <c r="B32" s="39">
@@ -5747,7 +5740,7 @@
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="50" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="39">
@@ -5761,7 +5754,7 @@
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="50" t="s">
         <v>194</v>
       </c>
       <c r="B34" s="39">
@@ -5993,7 +5986,7 @@
       <c r="HO34" s="15"/>
     </row>
     <row r="35" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="50" t="s">
         <v>232</v>
       </c>
       <c r="B35" s="39">
@@ -6227,7 +6220,7 @@
       <c r="HO35" s="15"/>
     </row>
     <row r="36" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="50" t="s">
         <v>222</v>
       </c>
       <c r="B36" s="39">
@@ -6460,17 +6453,19 @@
       <c r="HN36" s="15"/>
       <c r="HO36" s="15"/>
     </row>
-    <row r="37" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A37" s="65" t="s">
+    <row r="37" spans="1:223" ht="15" customHeight="1">
+      <c r="A37" s="50" t="s">
         <v>257</v>
       </c>
       <c r="B37" s="39">
         <v>1120.08</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>20</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" ref="D37:D68" si="1">B37*C37</f>
-        <v>0</v>
+        <v>22401.599999999999</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
@@ -6695,7 +6690,7 @@
       <c r="HO37" s="15"/>
     </row>
     <row r="38" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="50" t="s">
         <v>200</v>
       </c>
       <c r="B38" s="39">
@@ -6929,7 +6924,7 @@
       <c r="HO38" s="15"/>
     </row>
     <row r="39" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="50" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="39">
@@ -7161,7 +7156,7 @@
       <c r="HO39" s="15"/>
     </row>
     <row r="40" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="39">
@@ -7393,7 +7388,7 @@
       <c r="HO40" s="15"/>
     </row>
     <row r="41" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="50" t="s">
         <v>205</v>
       </c>
       <c r="B41" s="39">
@@ -7627,7 +7622,7 @@
       <c r="HO41" s="15"/>
     </row>
     <row r="42" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="50" t="s">
         <v>118</v>
       </c>
       <c r="B42" s="39">
@@ -7859,7 +7854,7 @@
       <c r="HO42" s="15"/>
     </row>
     <row r="43" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="50" t="s">
         <v>161</v>
       </c>
       <c r="B43" s="39">
@@ -8091,7 +8086,7 @@
       <c r="HO43" s="15"/>
     </row>
     <row r="44" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="50" t="s">
         <v>235</v>
       </c>
       <c r="B44" s="39">
@@ -8323,7 +8318,7 @@
       <c r="HO44" s="15"/>
     </row>
     <row r="45" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="51" t="s">
         <v>160</v>
       </c>
       <c r="B45" s="39">
@@ -8554,8 +8549,8 @@
       <c r="HN45" s="15"/>
       <c r="HO45" s="15"/>
     </row>
-    <row r="46" spans="1:223" s="67" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A46" s="65" t="s">
+    <row r="46" spans="1:223" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A46" s="50" t="s">
         <v>255</v>
       </c>
       <c r="B46" s="39">
@@ -8569,7 +8564,7 @@
       <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="50" t="s">
         <v>272</v>
       </c>
       <c r="B47" s="39">
@@ -8803,7 +8798,7 @@
       <c r="HO47" s="15"/>
     </row>
     <row r="48" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="51" t="s">
         <v>138</v>
       </c>
       <c r="B48" s="39">
@@ -9037,7 +9032,7 @@
       <c r="HO48" s="15"/>
     </row>
     <row r="49" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="51" t="s">
         <v>275</v>
       </c>
       <c r="B49" s="39">
@@ -9271,7 +9266,7 @@
       <c r="HO49" s="15"/>
     </row>
     <row r="50" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="50" t="s">
         <v>253</v>
       </c>
       <c r="B50" s="39">
@@ -9505,7 +9500,7 @@
       <c r="HO50" s="15"/>
     </row>
     <row r="51" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="50" t="s">
         <v>185</v>
       </c>
       <c r="B51" s="39">
@@ -9737,7 +9732,7 @@
       <c r="HO51" s="15"/>
     </row>
     <row r="52" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="51" t="s">
         <v>238</v>
       </c>
       <c r="B52" s="39">
@@ -9971,7 +9966,7 @@
       <c r="HO52" s="15"/>
     </row>
     <row r="53" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="51" t="s">
         <v>259</v>
       </c>
       <c r="B53" s="39">
@@ -10205,7 +10200,7 @@
       <c r="HO53" s="15"/>
     </row>
     <row r="54" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A54" s="65" t="s">
+      <c r="A54" s="50" t="s">
         <v>178</v>
       </c>
       <c r="B54" s="39">
@@ -10437,7 +10432,7 @@
       <c r="HO54" s="15"/>
     </row>
     <row r="55" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="50" t="s">
         <v>177</v>
       </c>
       <c r="B55" s="39">
@@ -10669,7 +10664,7 @@
       <c r="HO55" s="15"/>
     </row>
     <row r="56" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="50" t="s">
         <v>116</v>
       </c>
       <c r="B56" s="39">
@@ -10901,7 +10896,7 @@
       <c r="HO56" s="15"/>
     </row>
     <row r="57" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="50" t="s">
         <v>125</v>
       </c>
       <c r="B57" s="39">
@@ -11135,7 +11130,7 @@
       <c r="HO57" s="15"/>
     </row>
     <row r="58" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="50" t="s">
         <v>193</v>
       </c>
       <c r="B58" s="39">
@@ -11367,7 +11362,7 @@
       <c r="HO58" s="15"/>
     </row>
     <row r="59" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="50" t="s">
         <v>150</v>
       </c>
       <c r="B59" s="39">
@@ -11599,7 +11594,7 @@
       <c r="HO59" s="15"/>
     </row>
     <row r="60" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="50" t="s">
         <v>144</v>
       </c>
       <c r="B60" s="39">
@@ -11831,7 +11826,7 @@
       <c r="HO60" s="15"/>
     </row>
     <row r="61" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="50" t="s">
         <v>267</v>
       </c>
       <c r="B61" s="39">
@@ -12065,7 +12060,7 @@
       <c r="HO61" s="15"/>
     </row>
     <row r="62" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="50" t="s">
         <v>175</v>
       </c>
       <c r="B62" s="39">
@@ -12297,7 +12292,7 @@
       <c r="HO62" s="15"/>
     </row>
     <row r="63" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="50" t="s">
         <v>174</v>
       </c>
       <c r="B63" s="39">
@@ -12529,7 +12524,7 @@
       <c r="HO63" s="15"/>
     </row>
     <row r="64" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="50" t="s">
         <v>212</v>
       </c>
       <c r="B64" s="39">
@@ -12761,7 +12756,7 @@
       <c r="HO64" s="15"/>
     </row>
     <row r="65" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="50" t="s">
         <v>251</v>
       </c>
       <c r="B65" s="39">
@@ -12826,7 +12821,7 @@
       <c r="BB65" s="14"/>
     </row>
     <row r="66" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="50" t="s">
         <v>132</v>
       </c>
       <c r="B66" s="39">
@@ -12889,7 +12884,7 @@
       <c r="BB66" s="14"/>
     </row>
     <row r="67" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="50" t="s">
         <v>203</v>
       </c>
       <c r="B67" s="39">
@@ -12903,7 +12898,7 @@
       <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="50" t="s">
         <v>261</v>
       </c>
       <c r="B68" s="39">
@@ -12917,8 +12912,8 @@
       <c r="E68" s="18"/>
     </row>
     <row r="69" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A69" s="65" t="s">
-        <v>283</v>
+      <c r="A69" s="50" t="s">
+        <v>282</v>
       </c>
       <c r="B69" s="39">
         <v>5427.89</v>
@@ -12968,7 +12963,7 @@
       <c r="AN69" s="32"/>
     </row>
     <row r="70" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="50" t="s">
         <v>234</v>
       </c>
       <c r="B70" s="39">
@@ -13033,7 +13028,7 @@
       <c r="BB70" s="32"/>
     </row>
     <row r="71" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="50" t="s">
         <v>207</v>
       </c>
       <c r="B71" s="39">
@@ -13047,7 +13042,7 @@
       <c r="E71" s="18"/>
     </row>
     <row r="72" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="50" t="s">
         <v>243</v>
       </c>
       <c r="B72" s="39">
@@ -13063,7 +13058,7 @@
       </c>
     </row>
     <row r="73" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="50" t="s">
         <v>168</v>
       </c>
       <c r="B73" s="39">
@@ -13079,7 +13074,7 @@
       </c>
     </row>
     <row r="74" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="50" t="s">
         <v>140</v>
       </c>
       <c r="B74" s="39">
@@ -13093,7 +13088,7 @@
       <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="50" t="s">
         <v>151</v>
       </c>
       <c r="B75" s="39">
@@ -13107,7 +13102,7 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="50" t="s">
         <v>199</v>
       </c>
       <c r="B76" s="39">
@@ -13121,7 +13116,7 @@
       <c r="E76" s="18"/>
     </row>
     <row r="77" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="50" t="s">
         <v>226</v>
       </c>
       <c r="B77" s="39">
@@ -13355,7 +13350,7 @@
       <c r="HO77" s="15"/>
     </row>
     <row r="78" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A78" s="65" t="s">
+      <c r="A78" s="50" t="s">
         <v>271</v>
       </c>
       <c r="B78" s="39">
@@ -13589,7 +13584,7 @@
       <c r="HO78" s="15"/>
     </row>
     <row r="79" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="50" t="s">
         <v>270</v>
       </c>
       <c r="B79" s="39">
@@ -13823,7 +13818,7 @@
       <c r="HO79" s="15"/>
     </row>
     <row r="80" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="51" t="s">
         <v>126</v>
       </c>
       <c r="B80" s="39">
@@ -14057,7 +14052,7 @@
       <c r="HO80" s="15"/>
     </row>
     <row r="81" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A81" s="66" t="s">
+      <c r="A81" s="51" t="s">
         <v>172</v>
       </c>
       <c r="B81" s="39">
@@ -14289,7 +14284,7 @@
       <c r="HO81" s="15"/>
     </row>
     <row r="82" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A82" s="66" t="s">
+      <c r="A82" s="51" t="s">
         <v>149</v>
       </c>
       <c r="B82" s="39">
@@ -14303,7 +14298,7 @@
       <c r="E82" s="18"/>
     </row>
     <row r="83" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="51" t="s">
         <v>230</v>
       </c>
       <c r="B83" s="39">
@@ -14318,25 +14313,27 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A84" s="66" t="s">
+    <row r="84" spans="1:223" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A84" s="51" t="s">
         <v>274</v>
       </c>
       <c r="B84" s="39">
         <v>1246.96</v>
       </c>
-      <c r="C84" s="17"/>
+      <c r="C84" s="17">
+        <v>40</v>
+      </c>
       <c r="D84" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A85" s="66" t="s">
-        <v>286</v>
+      <c r="A85" s="51" t="s">
+        <v>285</v>
       </c>
       <c r="B85" s="39">
         <v>1306.26</v>
@@ -14569,7 +14566,7 @@
       <c r="HO85" s="15"/>
     </row>
     <row r="86" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A86" s="66" t="s">
+      <c r="A86" s="51" t="s">
         <v>137</v>
       </c>
       <c r="B86" s="39">
@@ -14632,7 +14629,7 @@
       <c r="BB86" s="14"/>
     </row>
     <row r="87" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="66" t="s">
+      <c r="A87" s="51" t="s">
         <v>135</v>
       </c>
       <c r="B87" s="39">
@@ -14695,7 +14692,7 @@
       <c r="BB87" s="14"/>
     </row>
     <row r="88" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B88" s="39">
@@ -14929,7 +14926,7 @@
       <c r="HO88" s="15"/>
     </row>
     <row r="89" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A89" s="66" t="s">
+      <c r="A89" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B89" s="39">
@@ -15163,7 +15160,7 @@
       <c r="HO89" s="15"/>
     </row>
     <row r="90" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="51" t="s">
         <v>171</v>
       </c>
       <c r="B90" s="39">
@@ -15395,7 +15392,7 @@
       <c r="HO90" s="15"/>
     </row>
     <row r="91" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B91" s="39">
@@ -15627,7 +15624,7 @@
       <c r="HO91" s="15"/>
     </row>
     <row r="92" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="66" t="s">
+      <c r="A92" s="51" t="s">
         <v>202</v>
       </c>
       <c r="B92" s="39">
@@ -15859,7 +15856,7 @@
       <c r="HO92" s="15"/>
     </row>
     <row r="93" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="51" t="s">
         <v>240</v>
       </c>
       <c r="B93" s="39">
@@ -15875,7 +15872,7 @@
       </c>
     </row>
     <row r="94" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A94" s="66" t="s">
+      <c r="A94" s="51" t="s">
         <v>166</v>
       </c>
       <c r="B94" s="39">
@@ -15937,17 +15934,19 @@
       <c r="BA94" s="32"/>
       <c r="BB94" s="32"/>
     </row>
-    <row r="95" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A95" s="66" t="s">
+    <row r="95" spans="1:223" ht="15" customHeight="1">
+      <c r="A95" s="51" t="s">
         <v>278</v>
       </c>
       <c r="B95" s="39">
         <v>1364.45</v>
       </c>
-      <c r="C95" s="17"/>
+      <c r="C95" s="17">
+        <v>20</v>
+      </c>
       <c r="D95" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>269</v>
@@ -16172,8 +16171,8 @@
       <c r="HO95" s="15"/>
     </row>
     <row r="96" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A96" s="66" t="s">
-        <v>284</v>
+      <c r="A96" s="51" t="s">
+        <v>283</v>
       </c>
       <c r="B96" s="39">
         <v>1403.33</v>
@@ -16406,7 +16405,7 @@
       <c r="HO96" s="15"/>
     </row>
     <row r="97" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A97" s="66" t="s">
+      <c r="A97" s="51" t="s">
         <v>127</v>
       </c>
       <c r="B97" s="39">
@@ -16638,7 +16637,7 @@
       <c r="HO97" s="15"/>
     </row>
     <row r="98" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="50" t="s">
         <v>182</v>
       </c>
       <c r="B98" s="39">
@@ -16872,7 +16871,7 @@
       <c r="HO98" s="15"/>
     </row>
     <row r="99" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="50" t="s">
         <v>233</v>
       </c>
       <c r="B99" s="39">
@@ -16888,7 +16887,7 @@
       </c>
     </row>
     <row r="100" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B100" s="39">
@@ -16903,17 +16902,19 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A101" s="65" t="s">
-        <v>288</v>
+    <row r="101" spans="1:223" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A101" s="50" t="s">
+        <v>287</v>
       </c>
       <c r="B101" s="39">
         <v>1188.82</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="17">
+        <v>20</v>
+      </c>
       <c r="D101" s="18">
         <f t="shared" ref="D101:D132" si="3">B101*C101</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>269</v>
@@ -16955,7 +16956,7 @@
       <c r="AN101" s="32"/>
     </row>
     <row r="102" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A102" s="66" t="s">
+      <c r="A102" s="51" t="s">
         <v>189</v>
       </c>
       <c r="B102" s="39">
@@ -16969,7 +16970,7 @@
       <c r="E102" s="18"/>
     </row>
     <row r="103" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="66" t="s">
+      <c r="A103" s="51" t="s">
         <v>130</v>
       </c>
       <c r="B103" s="39">
@@ -17203,7 +17204,7 @@
       <c r="HO103" s="15"/>
     </row>
     <row r="104" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A104" s="66" t="s">
+      <c r="A104" s="51" t="s">
         <v>201</v>
       </c>
       <c r="B104" s="39">
@@ -17437,7 +17438,7 @@
       <c r="HO104" s="15"/>
     </row>
     <row r="105" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A105" s="66" t="s">
+      <c r="A105" s="51" t="s">
         <v>162</v>
       </c>
       <c r="B105" s="39">
@@ -17669,7 +17670,7 @@
       <c r="HO105" s="15"/>
     </row>
     <row r="106" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A106" s="66" t="s">
+      <c r="A106" s="51" t="s">
         <v>179</v>
       </c>
       <c r="B106" s="39">
@@ -17901,7 +17902,7 @@
       <c r="HO106" s="15"/>
     </row>
     <row r="107" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="51" t="s">
         <v>187</v>
       </c>
       <c r="B107" s="39">
@@ -18135,7 +18136,7 @@
       <c r="HO107" s="15"/>
     </row>
     <row r="108" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A108" s="66" t="s">
+      <c r="A108" s="51" t="s">
         <v>167</v>
       </c>
       <c r="B108" s="39">
@@ -18367,7 +18368,7 @@
       <c r="HO108" s="15"/>
     </row>
     <row r="109" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A109" s="66" t="s">
+      <c r="A109" s="51" t="s">
         <v>268</v>
       </c>
       <c r="B109" s="39">
@@ -18432,7 +18433,7 @@
       <c r="BB109" s="14"/>
     </row>
     <row r="110" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A110" s="65" t="s">
+      <c r="A110" s="50" t="s">
         <v>145</v>
       </c>
       <c r="B110" s="39">
@@ -18495,7 +18496,7 @@
       <c r="BB110" s="14"/>
     </row>
     <row r="111" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="65" t="s">
+      <c r="A111" s="50" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="39">
@@ -18558,7 +18559,7 @@
       <c r="BB111" s="14"/>
     </row>
     <row r="112" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A112" s="65" t="s">
+      <c r="A112" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B112" s="39">
@@ -18790,7 +18791,7 @@
       <c r="HO112" s="15"/>
     </row>
     <row r="113" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A113" s="65" t="s">
+      <c r="A113" s="50" t="s">
         <v>141</v>
       </c>
       <c r="B113" s="39">
@@ -19022,7 +19023,7 @@
       <c r="HO113" s="15"/>
     </row>
     <row r="114" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A114" s="65" t="s">
+      <c r="A114" s="50" t="s">
         <v>204</v>
       </c>
       <c r="B114" s="39">
@@ -19256,7 +19257,7 @@
       <c r="HO114" s="15"/>
     </row>
     <row r="115" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A115" s="65" t="s">
+      <c r="A115" s="50" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="39">
@@ -19488,7 +19489,7 @@
       <c r="HO115" s="15"/>
     </row>
     <row r="116" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A116" s="65" t="s">
+      <c r="A116" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B116" s="39">
@@ -19722,7 +19723,7 @@
       <c r="HO116" s="15"/>
     </row>
     <row r="117" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A117" s="65" t="s">
+      <c r="A117" s="50" t="s">
         <v>95</v>
       </c>
       <c r="B117" s="39">
@@ -19954,7 +19955,7 @@
       <c r="HO117" s="15"/>
     </row>
     <row r="118" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A118" s="65" t="s">
+      <c r="A118" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B118" s="39">
@@ -20186,7 +20187,7 @@
       <c r="HO118" s="15"/>
     </row>
     <row r="119" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A119" s="65" t="s">
+      <c r="A119" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B119" s="39">
@@ -20420,7 +20421,7 @@
       <c r="HO119" s="15"/>
     </row>
     <row r="120" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A120" s="65" t="s">
+      <c r="A120" s="50" t="s">
         <v>229</v>
       </c>
       <c r="B120" s="39">
@@ -20652,7 +20653,7 @@
       <c r="HO120" s="15"/>
     </row>
     <row r="121" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A121" s="66" t="s">
+      <c r="A121" s="51" t="s">
         <v>74</v>
       </c>
       <c r="B121" s="39">
@@ -20884,7 +20885,7 @@
       <c r="HO121" s="15"/>
     </row>
     <row r="122" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="66" t="s">
+      <c r="A122" s="51" t="s">
         <v>142</v>
       </c>
       <c r="B122" s="39">
@@ -20947,7 +20948,7 @@
       <c r="BB122" s="14"/>
     </row>
     <row r="123" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="66" t="s">
+      <c r="A123" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B123" s="39">
@@ -21179,7 +21180,7 @@
       <c r="HO123" s="15"/>
     </row>
     <row r="124" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A124" s="66" t="s">
+      <c r="A124" s="51" t="s">
         <v>134</v>
       </c>
       <c r="B124" s="39">
@@ -21411,7 +21412,7 @@
       <c r="HO124" s="15"/>
     </row>
     <row r="125" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A125" s="65" t="s">
+      <c r="A125" s="50" t="s">
         <v>186</v>
       </c>
       <c r="B125" s="39">
@@ -21645,7 +21646,7 @@
       <c r="HO125" s="15"/>
     </row>
     <row r="126" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A126" s="65" t="s">
+      <c r="A126" s="50" t="s">
         <v>191</v>
       </c>
       <c r="B126" s="39">
@@ -21879,7 +21880,7 @@
       <c r="HO126" s="15"/>
     </row>
     <row r="127" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A127" s="65" t="s">
+      <c r="A127" s="50" t="s">
         <v>258</v>
       </c>
       <c r="B127" s="39">
@@ -22111,7 +22112,7 @@
       <c r="HO127" s="15"/>
     </row>
     <row r="128" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A128" s="65" t="s">
+      <c r="A128" s="50" t="s">
         <v>119</v>
       </c>
       <c r="B128" s="39">
@@ -22343,7 +22344,7 @@
       <c r="HO128" s="15"/>
     </row>
     <row r="129" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A129" s="65" t="s">
+      <c r="A129" s="50" t="s">
         <v>139</v>
       </c>
       <c r="B129" s="39">
@@ -22574,17 +22575,19 @@
       <c r="HN129" s="15"/>
       <c r="HO129" s="15"/>
     </row>
-    <row r="130" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A130" s="65" t="s">
+    <row r="130" spans="1:223" ht="15" customHeight="1" thickBot="1">
+      <c r="A130" s="50" t="s">
         <v>277</v>
       </c>
       <c r="B130" s="39">
         <v>1208.01</v>
       </c>
-      <c r="C130" s="17"/>
+      <c r="C130" s="17">
+        <v>20</v>
+      </c>
       <c r="D130" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>269</v>
@@ -22809,7 +22812,7 @@
       <c r="HO130" s="15"/>
     </row>
     <row r="131" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A131" s="65" t="s">
+      <c r="A131" s="50" t="s">
         <v>242</v>
       </c>
       <c r="B131" s="39">
@@ -23043,7 +23046,7 @@
       <c r="HO131" s="15"/>
     </row>
     <row r="132" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A132" s="65" t="s">
+      <c r="A132" s="50" t="s">
         <v>241</v>
       </c>
       <c r="B132" s="39">
@@ -23277,7 +23280,7 @@
       <c r="HO132" s="15"/>
     </row>
     <row r="133" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A133" s="65" t="s">
+      <c r="A133" s="50" t="s">
         <v>198</v>
       </c>
       <c r="B133" s="39">
@@ -23511,7 +23514,7 @@
       <c r="HO133" s="15"/>
     </row>
     <row r="134" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A134" s="65" t="s">
+      <c r="A134" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B134" s="39">
@@ -23742,7 +23745,7 @@
       <c r="HO134" s="15"/>
     </row>
     <row r="135" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A135" s="65" t="s">
+      <c r="A135" s="50" t="s">
         <v>173</v>
       </c>
       <c r="B135" s="39">
@@ -23974,7 +23977,7 @@
       <c r="HO135" s="15"/>
     </row>
     <row r="136" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="65" t="s">
+      <c r="A136" s="50" t="s">
         <v>163</v>
       </c>
       <c r="B136" s="39">
@@ -24206,7 +24209,7 @@
       <c r="HO136" s="15"/>
     </row>
     <row r="137" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A137" s="66" t="s">
+      <c r="A137" s="51" t="s">
         <v>217</v>
       </c>
       <c r="B137" s="39">
@@ -24217,12 +24220,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E137" s="68" t="s">
+      <c r="E137" s="53" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A138" s="65" t="s">
+      <c r="A138" s="50" t="s">
         <v>197</v>
       </c>
       <c r="B138" s="39">
@@ -24233,10 +24236,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E138" s="69"/>
+      <c r="E138" s="54"/>
     </row>
     <row r="139" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A139" s="65" t="s">
+      <c r="A139" s="50" t="s">
         <v>181</v>
       </c>
       <c r="B139" s="39">
@@ -24250,7 +24253,7 @@
       <c r="E139" s="18"/>
     </row>
     <row r="140" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="65" t="s">
+      <c r="A140" s="50" t="s">
         <v>176</v>
       </c>
       <c r="B140" s="39">
@@ -24264,7 +24267,7 @@
       <c r="E140" s="18"/>
     </row>
     <row r="141" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="65" t="s">
+      <c r="A141" s="50" t="s">
         <v>184</v>
       </c>
       <c r="B141" s="39">
@@ -24278,7 +24281,7 @@
       <c r="E141" s="18"/>
     </row>
     <row r="142" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="51" t="s">
         <v>123</v>
       </c>
       <c r="B142" s="39">
@@ -24294,7 +24297,7 @@
       </c>
     </row>
     <row r="143" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="66" t="s">
+      <c r="A143" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B143" s="39">
@@ -24308,7 +24311,7 @@
       <c r="E143" s="18"/>
     </row>
     <row r="144" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="50" t="s">
         <v>221</v>
       </c>
       <c r="B144" s="43">
@@ -24542,7 +24545,7 @@
       <c r="HO144" s="15"/>
     </row>
     <row r="145" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="66" t="s">
+      <c r="A145" s="51" t="s">
         <v>190</v>
       </c>
       <c r="B145" s="39">
@@ -24776,7 +24779,7 @@
       <c r="HO145" s="15"/>
     </row>
     <row r="146" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="66" t="s">
+      <c r="A146" s="51" t="s">
         <v>153</v>
       </c>
       <c r="B146" s="39">
@@ -25008,7 +25011,7 @@
       <c r="HO146" s="15"/>
     </row>
     <row r="147" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="66" t="s">
+      <c r="A147" s="51" t="s">
         <v>129</v>
       </c>
       <c r="B147" s="39">
@@ -25019,7 +25022,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E147" s="68" t="s">
+      <c r="E147" s="53" t="s">
         <v>227</v>
       </c>
       <c r="F147" s="15"/>
@@ -25242,7 +25245,7 @@
       <c r="HO147" s="15"/>
     </row>
     <row r="148" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="66" t="s">
+      <c r="A148" s="51" t="s">
         <v>164</v>
       </c>
       <c r="B148" s="43">
@@ -25474,7 +25477,7 @@
       <c r="HO148" s="15"/>
     </row>
     <row r="149" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="66" t="s">
+      <c r="A149" s="51" t="s">
         <v>188</v>
       </c>
       <c r="B149" s="43">
@@ -25708,7 +25711,7 @@
       <c r="HO149" s="15"/>
     </row>
     <row r="150" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A150" s="66" t="s">
+      <c r="A150" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B150" s="43">
@@ -25942,7 +25945,7 @@
       <c r="HO150" s="15"/>
     </row>
     <row r="151" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A151" s="66" t="s">
+      <c r="A151" s="51" t="s">
         <v>165</v>
       </c>
       <c r="B151" s="39">
@@ -26174,7 +26177,7 @@
       <c r="HO151" s="15"/>
     </row>
     <row r="152" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A152" s="66" t="s">
+      <c r="A152" s="51" t="s">
         <v>196</v>
       </c>
       <c r="B152" s="39">
@@ -26406,7 +26409,7 @@
       <c r="HO152" s="15"/>
     </row>
     <row r="153" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A153" s="66" t="s">
+      <c r="A153" s="51" t="s">
         <v>180</v>
       </c>
       <c r="B153" s="39">
@@ -26417,7 +26420,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E153" s="69" t="s">
+      <c r="E153" s="54" t="s">
         <v>209</v>
       </c>
       <c r="F153" s="15"/>
@@ -26640,7 +26643,7 @@
       <c r="HO153" s="15"/>
     </row>
     <row r="154" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A154" s="66" t="s">
+      <c r="A154" s="51" t="s">
         <v>231</v>
       </c>
       <c r="B154" s="39">
@@ -26874,7 +26877,7 @@
       <c r="HO154" s="15"/>
     </row>
     <row r="155" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A155" s="65" t="s">
+      <c r="A155" s="50" t="s">
         <v>264</v>
       </c>
       <c r="B155" s="39">
@@ -26889,8 +26892,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A156" s="65" t="s">
+    <row r="156" spans="1:223" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+      <c r="A156" s="50" t="s">
         <v>133</v>
       </c>
       <c r="B156" s="39">
@@ -26903,8 +26906,8 @@
       </c>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A157" s="65" t="s">
+    <row r="157" spans="1:223" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+      <c r="A157" s="50" t="s">
         <v>247</v>
       </c>
       <c r="B157" s="39">
@@ -26920,7 +26923,7 @@
       </c>
     </row>
     <row r="158" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A158" s="65" t="s">
+      <c r="A158" s="50" t="s">
         <v>206</v>
       </c>
       <c r="B158" s="39">
@@ -27152,7 +27155,7 @@
       <c r="HO158" s="15"/>
     </row>
     <row r="159" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A159" s="65" t="s">
+      <c r="A159" s="50" t="s">
         <v>266</v>
       </c>
       <c r="B159" s="39">
@@ -27386,8 +27389,8 @@
       <c r="HO159" s="15"/>
     </row>
     <row r="160" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A160" s="65" t="s">
-        <v>289</v>
+      <c r="A160" s="50" t="s">
+        <v>288</v>
       </c>
       <c r="B160" s="39">
         <v>7066.79</v>
@@ -27398,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -27620,8 +27623,8 @@
       <c r="HO160" s="15"/>
     </row>
     <row r="161" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A161" s="65" t="s">
-        <v>294</v>
+      <c r="A161" s="50" t="s">
+        <v>293</v>
       </c>
       <c r="B161" s="39">
         <v>8101.24</v>
@@ -27852,8 +27855,8 @@
       <c r="HO161" s="15"/>
     </row>
     <row r="162" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A162" s="65" t="s">
-        <v>295</v>
+      <c r="A162" s="50" t="s">
+        <v>294</v>
       </c>
       <c r="B162" s="39">
         <v>7501.24</v>
@@ -28084,8 +28087,8 @@
       <c r="HO162" s="15"/>
     </row>
     <row r="163" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A163" s="65" t="s">
-        <v>296</v>
+      <c r="A163" s="50" t="s">
+        <v>295</v>
       </c>
       <c r="B163" s="39">
         <v>7778.48</v>
@@ -28096,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -28318,8 +28321,8 @@
       <c r="HO163" s="15"/>
     </row>
     <row r="164" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A164" s="65" t="s">
-        <v>297</v>
+      <c r="A164" s="50" t="s">
+        <v>296</v>
       </c>
       <c r="B164" s="39">
         <v>9066.5400000000009</v>
@@ -28552,7 +28555,7 @@
       <c r="HO164" s="15"/>
     </row>
     <row r="165" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A165" s="65" t="s">
+      <c r="A165" s="50" t="s">
         <v>279</v>
       </c>
       <c r="B165" s="39">
@@ -28560,11 +28563,11 @@
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="18">
-        <f t="shared" ref="D165:D196" si="5">B165*C165</f>
+        <f t="shared" ref="D165:D169" si="5">B165*C165</f>
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
@@ -28785,19 +28788,17 @@
       <c r="HN165" s="15"/>
       <c r="HO165" s="15"/>
     </row>
-    <row r="166" spans="1:223" ht="15" customHeight="1" thickBot="1">
-      <c r="A166" s="65" t="s">
-        <v>298</v>
+    <row r="166" spans="1:223" ht="15" hidden="1" customHeight="1">
+      <c r="A166" s="50" t="s">
+        <v>297</v>
       </c>
       <c r="B166" s="39">
         <v>7778.48</v>
       </c>
-      <c r="C166" s="17">
-        <v>20</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>155569.59999999998</v>
+        <v>0</v>
       </c>
       <c r="E166" s="18" t="s">
         <v>269</v>
@@ -29022,8 +29023,8 @@
       <c r="HO166" s="15"/>
     </row>
     <row r="167" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A167" s="65" t="s">
-        <v>290</v>
+      <c r="A167" s="50" t="s">
+        <v>289</v>
       </c>
       <c r="B167" s="39"/>
       <c r="C167" s="17"/>
@@ -29254,8 +29255,8 @@
       <c r="HO167" s="15"/>
     </row>
     <row r="168" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A168" s="65" t="s">
-        <v>299</v>
+      <c r="A168" s="50" t="s">
+        <v>298</v>
       </c>
       <c r="B168" s="39"/>
       <c r="C168" s="17"/>
@@ -29484,8 +29485,8 @@
       <c r="HO168" s="15"/>
     </row>
     <row r="169" spans="1:223" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A169" s="65" t="s">
-        <v>300</v>
+      <c r="A169" s="50" t="s">
+        <v>299</v>
       </c>
       <c r="B169" s="39">
         <v>10133.07</v>
@@ -29718,17 +29719,17 @@
       <c r="HO169" s="15"/>
     </row>
     <row r="170" spans="1:223" ht="15" customHeight="1" thickBot="1">
-      <c r="A170" s="60" t="s">
+      <c r="A170" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B170" s="61"/>
+      <c r="B170" s="66"/>
       <c r="C170" s="34">
         <f>SUM(C5:C169)</f>
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="D170" s="35">
         <f>SUM(D5:D169)</f>
-        <v>597192.79999999993</v>
+        <v>204006.8</v>
       </c>
       <c r="E170" s="36"/>
       <c r="F170" s="33"/>
@@ -29951,7 +29952,7 @@
       <c r="HO170" s="15"/>
     </row>
     <row r="171" spans="1:223" ht="15" customHeight="1">
-      <c r="A171" s="70"/>
+      <c r="A171" s="55"/>
       <c r="B171" s="40"/>
       <c r="C171" s="20"/>
       <c r="D171" s="21"/>
@@ -30176,17 +30177,17 @@
       <c r="HO171" s="15"/>
     </row>
     <row r="172" spans="1:223" ht="9" customHeight="1" thickBot="1">
-      <c r="B172" s="45"/>
-      <c r="C172" s="45"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="45"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="57"/>
     </row>
     <row r="173" spans="1:223" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B173" s="50" t="s">
+      <c r="B173" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C173" s="51"/>
-      <c r="D173" s="52"/>
+      <c r="C173" s="63"/>
+      <c r="D173" s="64"/>
       <c r="E173" s="31"/>
     </row>
     <row r="174" spans="1:223" ht="9" customHeight="1" thickBot="1"/>
@@ -30204,10 +30205,10 @@
     </row>
     <row r="176" spans="1:223" ht="15" customHeight="1">
       <c r="B176" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C176" s="25">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="D176" s="26"/>
       <c r="E176" s="24" t="s">
@@ -30231,14 +30232,14 @@
       <c r="E178" s="24"/>
     </row>
     <row r="179" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B179" s="62" t="s">
+      <c r="B179" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C179" s="63">
+      <c r="C179" s="48">
         <f>SUM(C176:C178)</f>
-        <v>600000</v>
-      </c>
-      <c r="D179" s="64"/>
+        <v>200000</v>
+      </c>
+      <c r="D179" s="49"/>
       <c r="E179" s="29"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1"/>
@@ -30286,33 +30287,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="e">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -32253,10 +32254,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation 29.04.2021.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation 29.04.2021.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$169</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="301">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -924,6 +924,9 @@
   <si>
     <t>Z50</t>
   </si>
+  <si>
+    <t>Dazzling Blue Must be</t>
+  </si>
 </sst>
 </file>
 
@@ -1011,20 +1014,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1035,13 +1024,6 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1060,21 +1042,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1088,15 +1055,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,19 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,7 +1437,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1463,7 +1452,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1479,16 +1468,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,50 +1502,28 @@
     <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1565,14 +1532,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,52 +1548,76 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1946,70 +1937,70 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J170" sqref="J170"/>
+      <selection pane="bottomRight" activeCell="H85" sqref="H84:I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="33" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="18" style="14" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="32" customWidth="1"/>
-    <col min="7" max="54" width="9.140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="31" customWidth="1"/>
+    <col min="7" max="54" width="9.140625" style="31" customWidth="1"/>
     <col min="55" max="223" width="9.140625" style="14" customWidth="1"/>
     <col min="224" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:223" ht="23.25" thickBot="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:223" ht="20.25" thickBot="1">
+      <c r="A1" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
-    <row r="2" spans="1:223" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:223" ht="19.5" thickBot="1">
+      <c r="A2" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="60">
         <f ca="1">TODAY()</f>
-        <v>44336</v>
+        <v>44339</v>
       </c>
     </row>
-    <row r="3" spans="1:223" ht="7.5" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:223" ht="3" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:223" ht="15" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="68" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <v>6610.7</v>
       </c>
       <c r="C5" s="17"/>
@@ -2071,10 +2062,10 @@
       <c r="BB5" s="14"/>
     </row>
     <row r="6" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <v>892.23</v>
       </c>
       <c r="C6" s="17"/>
@@ -2136,10 +2127,10 @@
       <c r="BB6" s="14"/>
     </row>
     <row r="7" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <v>789.97</v>
       </c>
       <c r="C7" s="17"/>
@@ -2368,10 +2359,10 @@
       <c r="HO7" s="15"/>
     </row>
     <row r="8" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <v>803.40300000000002</v>
       </c>
       <c r="C8" s="17"/>
@@ -2600,10 +2591,10 @@
       <c r="HO8" s="15"/>
     </row>
     <row r="9" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <v>779.94</v>
       </c>
       <c r="C9" s="17"/>
@@ -2663,10 +2654,10 @@
       <c r="BB9" s="14"/>
     </row>
     <row r="10" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <v>774.93</v>
       </c>
       <c r="C10" s="17"/>
@@ -2726,10 +2717,10 @@
       <c r="BB10" s="14"/>
     </row>
     <row r="11" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <v>769.92</v>
       </c>
       <c r="C11" s="17"/>
@@ -2790,19 +2781,17 @@
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
     </row>
-    <row r="12" spans="1:223" ht="15" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:223" ht="15" hidden="1" customHeight="1">
+      <c r="A12" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <v>896.24</v>
       </c>
-      <c r="C12" s="17">
-        <v>40</v>
-      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
-        <v>35849.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>269</v>
@@ -2858,10 +2847,10 @@
       <c r="BB12" s="14"/>
     </row>
     <row r="13" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <v>721.8</v>
       </c>
       <c r="C13" s="17"/>
@@ -2921,10 +2910,10 @@
       <c r="BB13" s="14"/>
     </row>
     <row r="14" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <v>779.95</v>
       </c>
       <c r="C14" s="17"/>
@@ -2984,10 +2973,10 @@
       <c r="BB14" s="14"/>
     </row>
     <row r="15" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <v>770.92</v>
       </c>
       <c r="C15" s="17"/>
@@ -3047,10 +3036,10 @@
       <c r="BB15" s="14"/>
     </row>
     <row r="16" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>779.96</v>
       </c>
       <c r="C16" s="17"/>
@@ -3109,17 +3098,19 @@
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
     </row>
-    <row r="17" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:223" ht="15" customHeight="1">
+      <c r="A17" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <v>916.29</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="17">
+        <v>60</v>
+      </c>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54977.399999999994</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>269</v>
@@ -3174,17 +3165,19 @@
       <c r="BA17" s="14"/>
       <c r="BB17" s="14"/>
     </row>
-    <row r="18" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:223" ht="15" customHeight="1">
+      <c r="A18" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <v>916.29</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17">
+        <v>60</v>
+      </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54977.399999999994</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
@@ -3240,10 +3233,10 @@
       <c r="BB18" s="14"/>
     </row>
     <row r="19" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="34">
         <v>824.06</v>
       </c>
       <c r="C19" s="17"/>
@@ -3303,18 +3296,18 @@
       <c r="BB19" s="14"/>
     </row>
     <row r="20" spans="1:223" ht="15" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="34">
         <v>1032.58</v>
       </c>
       <c r="C20" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>20651.599999999999</v>
+        <v>103258</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>269</v>
@@ -3335,10 +3328,10 @@
       <c r="BB20" s="14"/>
     </row>
     <row r="21" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="34">
         <v>916.29</v>
       </c>
       <c r="C21" s="17"/>
@@ -3400,10 +3393,10 @@
       <c r="BB21" s="14"/>
     </row>
     <row r="22" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="34">
         <v>896.23500000000001</v>
       </c>
       <c r="C22" s="17"/>
@@ -3632,10 +3625,10 @@
       <c r="HO22" s="15"/>
     </row>
     <row r="23" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="34">
         <v>868.17</v>
       </c>
       <c r="C23" s="17"/>
@@ -3644,55 +3637,55 @@
         <v>0</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="33"/>
-      <c r="AY23" s="33"/>
-      <c r="AZ23" s="33"/>
-      <c r="BA23" s="33"/>
-      <c r="BB23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
       <c r="BC23" s="15"/>
       <c r="BD23" s="15"/>
       <c r="BE23" s="15"/>
@@ -3864,10 +3857,10 @@
       <c r="HO23" s="15"/>
     </row>
     <row r="24" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="34">
         <v>901.24800000000005</v>
       </c>
       <c r="C24" s="17"/>
@@ -4097,56 +4090,58 @@
       <c r="HN24" s="15"/>
       <c r="HO24" s="15"/>
     </row>
-    <row r="25" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:223" ht="15" customHeight="1">
+      <c r="A25" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="34">
         <v>969.42</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="17">
+        <v>100</v>
+      </c>
       <c r="D25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96942</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
       <c r="AO25" s="15"/>
       <c r="AP25" s="15"/>
       <c r="AQ25" s="15"/>
@@ -4332,10 +4327,10 @@
       <c r="HO25" s="15"/>
     </row>
     <row r="26" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="34">
         <v>824.06</v>
       </c>
       <c r="C26" s="17"/>
@@ -4564,10 +4559,10 @@
       <c r="HO26" s="15"/>
     </row>
     <row r="27" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="34">
         <v>798.99</v>
       </c>
       <c r="C27" s="17"/>
@@ -4576,55 +4571,55 @@
         <v>0</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="33"/>
-      <c r="BB27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
       <c r="BC27" s="15"/>
       <c r="BD27" s="15"/>
       <c r="BE27" s="15"/>
@@ -4796,10 +4791,10 @@
       <c r="HO27" s="15"/>
     </row>
     <row r="28" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="34">
         <v>1072.675</v>
       </c>
       <c r="C28" s="17"/>
@@ -5028,10 +5023,10 @@
       <c r="HO28" s="15"/>
     </row>
     <row r="29" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="34">
         <v>980.44500000000005</v>
       </c>
       <c r="C29" s="17"/>
@@ -5260,10 +5255,10 @@
       <c r="HO29" s="15"/>
     </row>
     <row r="30" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="34">
         <v>858.14</v>
       </c>
       <c r="C30" s="17"/>
@@ -5494,10 +5489,10 @@
       <c r="HO30" s="15"/>
     </row>
     <row r="31" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="34">
         <v>858.14</v>
       </c>
       <c r="C31" s="17"/>
@@ -5726,10 +5721,10 @@
       <c r="HO31" s="15"/>
     </row>
     <row r="32" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="34">
         <v>878.19</v>
       </c>
       <c r="C32" s="17"/>
@@ -5740,10 +5735,10 @@
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="34">
         <v>936.34</v>
       </c>
       <c r="C33" s="17"/>
@@ -5754,10 +5749,10 @@
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="34">
         <v>955.38</v>
       </c>
       <c r="C34" s="17"/>
@@ -5986,10 +5981,10 @@
       <c r="HO34" s="15"/>
     </row>
     <row r="35" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="34">
         <v>1014.53</v>
       </c>
       <c r="C35" s="17"/>
@@ -6219,17 +6214,19 @@
       <c r="HN35" s="15"/>
       <c r="HO35" s="15"/>
     </row>
-    <row r="36" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A36" s="50" t="s">
+    <row r="36" spans="1:223" ht="15" customHeight="1">
+      <c r="A36" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="17">
+        <v>60</v>
+      </c>
       <c r="D36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70728</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>269</v>
@@ -6454,71 +6451,71 @@
       <c r="HO36" s="15"/>
     </row>
     <row r="37" spans="1:223" ht="15" customHeight="1">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="34">
         <v>1120.08</v>
       </c>
       <c r="C37" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" ref="D37:D68" si="1">B37*C37</f>
-        <v>22401.599999999999</v>
+        <v>67204.799999999988</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="33"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="33"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="33"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="33"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="33"/>
-      <c r="AS37" s="33"/>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="33"/>
-      <c r="AV37" s="33"/>
-      <c r="AW37" s="33"/>
-      <c r="AX37" s="33"/>
-      <c r="AY37" s="33"/>
-      <c r="AZ37" s="33"/>
-      <c r="BA37" s="33"/>
-      <c r="BB37" s="33"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="32"/>
+      <c r="AQ37" s="32"/>
+      <c r="AR37" s="32"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="32"/>
+      <c r="AV37" s="32"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="32"/>
+      <c r="AY37" s="32"/>
+      <c r="AZ37" s="32"/>
+      <c r="BA37" s="32"/>
+      <c r="BB37" s="32"/>
       <c r="BC37" s="15"/>
       <c r="BD37" s="15"/>
       <c r="BE37" s="15"/>
@@ -6690,10 +6687,10 @@
       <c r="HO37" s="15"/>
     </row>
     <row r="38" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="34">
         <v>891</v>
       </c>
       <c r="C38" s="17"/>
@@ -6924,10 +6921,10 @@
       <c r="HO38" s="15"/>
     </row>
     <row r="39" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="34">
         <v>1159.8900000000001</v>
       </c>
       <c r="C39" s="17"/>
@@ -7156,10 +7153,10 @@
       <c r="HO39" s="15"/>
     </row>
     <row r="40" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B40" s="34">
         <v>1264.78</v>
       </c>
       <c r="C40" s="17"/>
@@ -7388,10 +7385,10 @@
       <c r="HO40" s="15"/>
     </row>
     <row r="41" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="34">
         <v>1422.38</v>
       </c>
       <c r="C41" s="17"/>
@@ -7402,41 +7399,41 @@
       <c r="E41" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="33"/>
-      <c r="AJ41" s="33"/>
-      <c r="AK41" s="33"/>
-      <c r="AL41" s="33"/>
-      <c r="AM41" s="33"/>
-      <c r="AN41" s="33"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="32"/>
       <c r="AO41" s="15"/>
       <c r="AP41" s="15"/>
       <c r="AQ41" s="15"/>
@@ -7622,10 +7619,10 @@
       <c r="HO41" s="15"/>
     </row>
     <row r="42" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="34">
         <v>1140.8499999999999</v>
       </c>
       <c r="C42" s="17"/>
@@ -7634,55 +7631,55 @@
         <v>0</v>
       </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="33"/>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="33"/>
-      <c r="AL42" s="33"/>
-      <c r="AM42" s="33"/>
-      <c r="AN42" s="33"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
-      <c r="AR42" s="33"/>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="33"/>
-      <c r="AV42" s="33"/>
-      <c r="AW42" s="33"/>
-      <c r="AX42" s="33"/>
-      <c r="AY42" s="33"/>
-      <c r="AZ42" s="33"/>
-      <c r="BA42" s="33"/>
-      <c r="BB42" s="33"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
       <c r="BC42" s="15"/>
       <c r="BD42" s="15"/>
       <c r="BE42" s="15"/>
@@ -7854,10 +7851,10 @@
       <c r="HO42" s="15"/>
     </row>
     <row r="43" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="34">
         <v>1244.723</v>
       </c>
       <c r="C43" s="17"/>
@@ -8086,10 +8083,10 @@
       <c r="HO43" s="15"/>
     </row>
     <row r="44" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="34">
         <v>1238.0899999999999</v>
       </c>
       <c r="C44" s="17"/>
@@ -8318,10 +8315,10 @@
       <c r="HO44" s="15"/>
     </row>
     <row r="45" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="34">
         <v>800</v>
       </c>
       <c r="C45" s="17"/>
@@ -8549,11 +8546,11 @@
       <c r="HN45" s="15"/>
       <c r="HO45" s="15"/>
     </row>
-    <row r="46" spans="1:223" s="52" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A46" s="50" t="s">
+    <row r="46" spans="1:223" s="44" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A46" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="34">
         <v>848.12</v>
       </c>
       <c r="C46" s="17"/>
@@ -8564,10 +8561,10 @@
       <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="B47" s="39">
+      <c r="B47" s="34">
         <v>1101.75</v>
       </c>
       <c r="C47" s="17"/>
@@ -8798,10 +8795,10 @@
       <c r="HO47" s="15"/>
     </row>
     <row r="48" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="34">
         <v>1159.8900000000001</v>
       </c>
       <c r="C48" s="17"/>
@@ -9032,10 +9029,10 @@
       <c r="HO48" s="15"/>
     </row>
     <row r="49" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="B49" s="39">
+      <c r="B49" s="34">
         <v>1066.6600000000001</v>
       </c>
       <c r="C49" s="17"/>
@@ -9046,41 +9043,41 @@
       <c r="E49" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="33"/>
-      <c r="AI49" s="33"/>
-      <c r="AJ49" s="33"/>
-      <c r="AK49" s="33"/>
-      <c r="AL49" s="33"/>
-      <c r="AM49" s="33"/>
-      <c r="AN49" s="33"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="32"/>
+      <c r="AK49" s="32"/>
+      <c r="AL49" s="32"/>
+      <c r="AM49" s="32"/>
+      <c r="AN49" s="32"/>
       <c r="AO49" s="15"/>
       <c r="AP49" s="15"/>
       <c r="AQ49" s="15"/>
@@ -9266,10 +9263,10 @@
       <c r="HO49" s="15"/>
     </row>
     <row r="50" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="34">
         <v>1014.53</v>
       </c>
       <c r="C50" s="17"/>
@@ -9500,10 +9497,10 @@
       <c r="HO50" s="15"/>
     </row>
     <row r="51" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="34">
         <v>1264.153</v>
       </c>
       <c r="C51" s="17"/>
@@ -9732,10 +9729,10 @@
       <c r="HO51" s="15"/>
     </row>
     <row r="52" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="34">
         <v>2702.42</v>
       </c>
       <c r="C52" s="17"/>
@@ -9746,55 +9743,55 @@
       <c r="E52" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
-      <c r="AI52" s="33"/>
-      <c r="AJ52" s="33"/>
-      <c r="AK52" s="33"/>
-      <c r="AL52" s="33"/>
-      <c r="AM52" s="33"/>
-      <c r="AN52" s="33"/>
-      <c r="AO52" s="33"/>
-      <c r="AP52" s="33"/>
-      <c r="AQ52" s="33"/>
-      <c r="AR52" s="33"/>
-      <c r="AS52" s="33"/>
-      <c r="AT52" s="33"/>
-      <c r="AU52" s="33"/>
-      <c r="AV52" s="33"/>
-      <c r="AW52" s="33"/>
-      <c r="AX52" s="33"/>
-      <c r="AY52" s="33"/>
-      <c r="AZ52" s="33"/>
-      <c r="BA52" s="33"/>
-      <c r="BB52" s="33"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="32"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
+      <c r="AH52" s="32"/>
+      <c r="AI52" s="32"/>
+      <c r="AJ52" s="32"/>
+      <c r="AK52" s="32"/>
+      <c r="AL52" s="32"/>
+      <c r="AM52" s="32"/>
+      <c r="AN52" s="32"/>
+      <c r="AO52" s="32"/>
+      <c r="AP52" s="32"/>
+      <c r="AQ52" s="32"/>
+      <c r="AR52" s="32"/>
+      <c r="AS52" s="32"/>
+      <c r="AT52" s="32"/>
+      <c r="AU52" s="32"/>
+      <c r="AV52" s="32"/>
+      <c r="AW52" s="32"/>
+      <c r="AX52" s="32"/>
+      <c r="AY52" s="32"/>
+      <c r="AZ52" s="32"/>
+      <c r="BA52" s="32"/>
+      <c r="BB52" s="32"/>
       <c r="BC52" s="15"/>
       <c r="BD52" s="15"/>
       <c r="BE52" s="15"/>
@@ -9966,10 +9963,10 @@
       <c r="HO52" s="15"/>
     </row>
     <row r="53" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="34">
         <v>3947.38</v>
       </c>
       <c r="C53" s="19"/>
@@ -9980,41 +9977,41 @@
       <c r="E53" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="33"/>
-      <c r="AH53" s="33"/>
-      <c r="AI53" s="33"/>
-      <c r="AJ53" s="33"/>
-      <c r="AK53" s="33"/>
-      <c r="AL53" s="33"/>
-      <c r="AM53" s="33"/>
-      <c r="AN53" s="33"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="32"/>
+      <c r="AH53" s="32"/>
+      <c r="AI53" s="32"/>
+      <c r="AJ53" s="32"/>
+      <c r="AK53" s="32"/>
+      <c r="AL53" s="32"/>
+      <c r="AM53" s="32"/>
+      <c r="AN53" s="32"/>
       <c r="AO53" s="15"/>
       <c r="AP53" s="15"/>
       <c r="AQ53" s="15"/>
@@ -10200,10 +10197,10 @@
       <c r="HO53" s="15"/>
     </row>
     <row r="54" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="39">
+      <c r="B54" s="34">
         <v>13914.7</v>
       </c>
       <c r="C54" s="17"/>
@@ -10432,10 +10429,10 @@
       <c r="HO54" s="15"/>
     </row>
     <row r="55" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="34">
         <v>20340.84</v>
       </c>
       <c r="C55" s="17"/>
@@ -10664,10 +10661,10 @@
       <c r="HO55" s="15"/>
     </row>
     <row r="56" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="34">
         <v>24267.584999999999</v>
       </c>
       <c r="C56" s="17"/>
@@ -10896,10 +10893,10 @@
       <c r="HO56" s="15"/>
     </row>
     <row r="57" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="39">
+      <c r="B57" s="34">
         <v>5334.3029999999999</v>
       </c>
       <c r="C57" s="17"/>
@@ -11130,10 +11127,10 @@
       <c r="HO57" s="15"/>
     </row>
     <row r="58" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="39">
+      <c r="B58" s="34">
         <v>6900.2079999999996</v>
       </c>
       <c r="C58" s="17"/>
@@ -11362,10 +11359,10 @@
       <c r="HO58" s="15"/>
     </row>
     <row r="59" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="39">
+      <c r="B59" s="34">
         <v>6715.95</v>
       </c>
       <c r="C59" s="17"/>
@@ -11594,10 +11591,10 @@
       <c r="HO59" s="15"/>
     </row>
     <row r="60" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="39">
+      <c r="B60" s="34">
         <v>8573.3799999999992</v>
       </c>
       <c r="C60" s="17"/>
@@ -11826,10 +11823,10 @@
       <c r="HO60" s="15"/>
     </row>
     <row r="61" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="B61" s="39">
+      <c r="B61" s="34">
         <v>4044.61</v>
       </c>
       <c r="C61" s="17"/>
@@ -12060,10 +12057,10 @@
       <c r="HO61" s="15"/>
     </row>
     <row r="62" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="39">
+      <c r="B62" s="34">
         <v>8088.17</v>
       </c>
       <c r="C62" s="17"/>
@@ -12292,10 +12289,10 @@
       <c r="HO62" s="15"/>
     </row>
     <row r="63" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="39">
+      <c r="B63" s="34">
         <v>5158.25</v>
       </c>
       <c r="C63" s="17"/>
@@ -12524,10 +12521,10 @@
       <c r="HO63" s="15"/>
     </row>
     <row r="64" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B64" s="39">
+      <c r="B64" s="34">
         <v>4885.6000000000004</v>
       </c>
       <c r="C64" s="17"/>
@@ -12756,10 +12753,10 @@
       <c r="HO64" s="15"/>
     </row>
     <row r="65" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="B65" s="39">
+      <c r="B65" s="34">
         <v>5247.46</v>
       </c>
       <c r="C65" s="17"/>
@@ -12821,10 +12818,10 @@
       <c r="BB65" s="14"/>
     </row>
     <row r="66" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="39">
+      <c r="B66" s="34">
         <v>6397.96</v>
       </c>
       <c r="C66" s="17"/>
@@ -12884,10 +12881,10 @@
       <c r="BB66" s="14"/>
     </row>
     <row r="67" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B67" s="39">
+      <c r="B67" s="34">
         <v>5607.32</v>
       </c>
       <c r="C67" s="17"/>
@@ -12898,10 +12895,10 @@
       <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="39">
+      <c r="B68" s="34">
         <v>4866.5600000000004</v>
       </c>
       <c r="C68" s="17"/>
@@ -12911,62 +12908,64 @@
       </c>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A69" s="50" t="s">
+    <row r="69" spans="1:223" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="B69" s="39">
+      <c r="B69" s="34">
         <v>5427.89</v>
       </c>
-      <c r="C69" s="17"/>
+      <c r="C69" s="17">
+        <v>30</v>
+      </c>
       <c r="D69" s="18">
         <f t="shared" ref="D69:D100" si="2">B69*C69</f>
-        <v>0</v>
+        <v>162836.70000000001</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="32"/>
-      <c r="AB69" s="32"/>
-      <c r="AC69" s="32"/>
-      <c r="AD69" s="32"/>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
-      <c r="AG69" s="32"/>
-      <c r="AH69" s="32"/>
-      <c r="AI69" s="32"/>
-      <c r="AJ69" s="32"/>
-      <c r="AK69" s="32"/>
-      <c r="AL69" s="32"/>
-      <c r="AM69" s="32"/>
-      <c r="AN69" s="32"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="31"/>
+      <c r="Y69" s="31"/>
+      <c r="Z69" s="31"/>
+      <c r="AA69" s="31"/>
+      <c r="AB69" s="31"/>
+      <c r="AC69" s="31"/>
+      <c r="AD69" s="31"/>
+      <c r="AE69" s="31"/>
+      <c r="AF69" s="31"/>
+      <c r="AG69" s="31"/>
+      <c r="AH69" s="31"/>
+      <c r="AI69" s="31"/>
+      <c r="AJ69" s="31"/>
+      <c r="AK69" s="31"/>
+      <c r="AL69" s="31"/>
+      <c r="AM69" s="31"/>
+      <c r="AN69" s="31"/>
     </row>
     <row r="70" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B70" s="39">
+      <c r="B70" s="34">
         <v>5411.86</v>
       </c>
       <c r="C70" s="17"/>
@@ -12977,61 +12976,61 @@
       <c r="E70" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="32"/>
-      <c r="X70" s="32"/>
-      <c r="Y70" s="32"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="32"/>
-      <c r="AB70" s="32"/>
-      <c r="AC70" s="32"/>
-      <c r="AD70" s="32"/>
-      <c r="AE70" s="32"/>
-      <c r="AF70" s="32"/>
-      <c r="AG70" s="32"/>
-      <c r="AH70" s="32"/>
-      <c r="AI70" s="32"/>
-      <c r="AJ70" s="32"/>
-      <c r="AK70" s="32"/>
-      <c r="AL70" s="32"/>
-      <c r="AM70" s="32"/>
-      <c r="AN70" s="32"/>
-      <c r="AO70" s="32"/>
-      <c r="AP70" s="32"/>
-      <c r="AQ70" s="32"/>
-      <c r="AR70" s="32"/>
-      <c r="AS70" s="32"/>
-      <c r="AT70" s="32"/>
-      <c r="AU70" s="32"/>
-      <c r="AV70" s="32"/>
-      <c r="AW70" s="32"/>
-      <c r="AX70" s="32"/>
-      <c r="AY70" s="32"/>
-      <c r="AZ70" s="32"/>
-      <c r="BA70" s="32"/>
-      <c r="BB70" s="32"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="31"/>
+      <c r="X70" s="31"/>
+      <c r="Y70" s="31"/>
+      <c r="Z70" s="31"/>
+      <c r="AA70" s="31"/>
+      <c r="AB70" s="31"/>
+      <c r="AC70" s="31"/>
+      <c r="AD70" s="31"/>
+      <c r="AE70" s="31"/>
+      <c r="AF70" s="31"/>
+      <c r="AG70" s="31"/>
+      <c r="AH70" s="31"/>
+      <c r="AI70" s="31"/>
+      <c r="AJ70" s="31"/>
+      <c r="AK70" s="31"/>
+      <c r="AL70" s="31"/>
+      <c r="AM70" s="31"/>
+      <c r="AN70" s="31"/>
+      <c r="AO70" s="31"/>
+      <c r="AP70" s="31"/>
+      <c r="AQ70" s="31"/>
+      <c r="AR70" s="31"/>
+      <c r="AS70" s="31"/>
+      <c r="AT70" s="31"/>
+      <c r="AU70" s="31"/>
+      <c r="AV70" s="31"/>
+      <c r="AW70" s="31"/>
+      <c r="AX70" s="31"/>
+      <c r="AY70" s="31"/>
+      <c r="AZ70" s="31"/>
+      <c r="BA70" s="31"/>
+      <c r="BB70" s="31"/>
     </row>
     <row r="71" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B71" s="39">
+      <c r="B71" s="34">
         <v>5412.5</v>
       </c>
       <c r="C71" s="17"/>
@@ -13042,10 +13041,10 @@
       <c r="E71" s="18"/>
     </row>
     <row r="72" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="39">
+      <c r="B72" s="34">
         <v>5792.76</v>
       </c>
       <c r="C72" s="17"/>
@@ -13058,10 +13057,10 @@
       </c>
     </row>
     <row r="73" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="39">
+      <c r="B73" s="34">
         <v>5793.45</v>
       </c>
       <c r="C73" s="17"/>
@@ -13074,10 +13073,10 @@
       </c>
     </row>
     <row r="74" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="39">
+      <c r="B74" s="34">
         <v>7714.24</v>
       </c>
       <c r="C74" s="17"/>
@@ -13088,10 +13087,10 @@
       <c r="E74" s="18"/>
     </row>
     <row r="75" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="39">
+      <c r="B75" s="34">
         <v>8225.51</v>
       </c>
       <c r="C75" s="17"/>
@@ -13102,10 +13101,10 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="39">
+      <c r="B76" s="34">
         <v>5382.7857000000004</v>
       </c>
       <c r="C76" s="17"/>
@@ -13116,10 +13115,10 @@
       <c r="E76" s="18"/>
     </row>
     <row r="77" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B77" s="39">
+      <c r="B77" s="34">
         <v>6306.98</v>
       </c>
       <c r="C77" s="17"/>
@@ -13350,10 +13349,10 @@
       <c r="HO77" s="15"/>
     </row>
     <row r="78" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="39">
+      <c r="B78" s="34">
         <v>5708.6</v>
       </c>
       <c r="C78" s="17"/>
@@ -13584,10 +13583,10 @@
       <c r="HO78" s="15"/>
     </row>
     <row r="79" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="39">
+      <c r="B79" s="34">
         <v>6405.21</v>
       </c>
       <c r="C79" s="17"/>
@@ -13818,10 +13817,10 @@
       <c r="HO79" s="15"/>
     </row>
     <row r="80" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="39">
+      <c r="B80" s="34">
         <v>1182</v>
       </c>
       <c r="C80" s="17"/>
@@ -14052,10 +14051,10 @@
       <c r="HO80" s="15"/>
     </row>
     <row r="81" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="39">
+      <c r="B81" s="34">
         <v>1199.99</v>
       </c>
       <c r="C81" s="17"/>
@@ -14284,10 +14283,10 @@
       <c r="HO81" s="15"/>
     </row>
     <row r="82" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="39">
+      <c r="B82" s="34">
         <v>1189.97</v>
       </c>
       <c r="C82" s="17"/>
@@ -14298,10 +14297,10 @@
       <c r="E82" s="18"/>
     </row>
     <row r="83" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A83" s="51" t="s">
+      <c r="A83" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="39">
+      <c r="B83" s="34">
         <v>1062.6500000000001</v>
       </c>
       <c r="C83" s="17"/>
@@ -14314,10 +14313,10 @@
       </c>
     </row>
     <row r="84" spans="1:223" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="B84" s="39">
+      <c r="B84" s="34">
         <v>1246.96</v>
       </c>
       <c r="C84" s="17">
@@ -14331,56 +14330,58 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A85" s="51" t="s">
+    <row r="85" spans="1:223" ht="15" customHeight="1">
+      <c r="A85" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="39">
+      <c r="B85" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
-      <c r="AB85" s="33"/>
-      <c r="AC85" s="33"/>
-      <c r="AD85" s="33"/>
-      <c r="AE85" s="33"/>
-      <c r="AF85" s="33"/>
-      <c r="AG85" s="33"/>
-      <c r="AH85" s="33"/>
-      <c r="AI85" s="33"/>
-      <c r="AJ85" s="33"/>
-      <c r="AK85" s="33"/>
-      <c r="AL85" s="33"/>
-      <c r="AM85" s="33"/>
-      <c r="AN85" s="33"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="32"/>
+      <c r="U85" s="32"/>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="32"/>
+      <c r="Z85" s="32"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="32"/>
+      <c r="AD85" s="32"/>
+      <c r="AE85" s="32"/>
+      <c r="AF85" s="32"/>
+      <c r="AG85" s="32"/>
+      <c r="AH85" s="32"/>
+      <c r="AI85" s="32"/>
+      <c r="AJ85" s="32"/>
+      <c r="AK85" s="32"/>
+      <c r="AL85" s="32"/>
+      <c r="AM85" s="32"/>
+      <c r="AN85" s="32"/>
       <c r="AO85" s="15"/>
       <c r="AP85" s="15"/>
       <c r="AQ85" s="15"/>
@@ -14566,10 +14567,10 @@
       <c r="HO85" s="15"/>
     </row>
     <row r="86" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="39">
+      <c r="B86" s="34">
         <v>1042.5999999999999</v>
       </c>
       <c r="C86" s="17"/>
@@ -14629,10 +14630,10 @@
       <c r="BB86" s="14"/>
     </row>
     <row r="87" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B87" s="39">
+      <c r="B87" s="34">
         <v>1435.58</v>
       </c>
       <c r="C87" s="17"/>
@@ -14692,10 +14693,10 @@
       <c r="BB87" s="14"/>
     </row>
     <row r="88" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A88" s="50" t="s">
+      <c r="A88" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="39">
+      <c r="B88" s="34">
         <v>5607.9849999999997</v>
       </c>
       <c r="C88" s="17"/>
@@ -14926,10 +14927,10 @@
       <c r="HO88" s="15"/>
     </row>
     <row r="89" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A89" s="51" t="s">
+      <c r="A89" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="39">
+      <c r="B89" s="34">
         <v>1054</v>
       </c>
       <c r="C89" s="17"/>
@@ -15160,10 +15161,10 @@
       <c r="HO89" s="15"/>
     </row>
     <row r="90" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A90" s="51" t="s">
+      <c r="A90" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="39">
+      <c r="B90" s="34">
         <v>1072.68</v>
       </c>
       <c r="C90" s="17"/>
@@ -15392,10 +15393,10 @@
       <c r="HO90" s="15"/>
     </row>
     <row r="91" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A91" s="50" t="s">
+      <c r="A91" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B91" s="39">
+      <c r="B91" s="34">
         <v>1106.76</v>
       </c>
       <c r="C91" s="17"/>
@@ -15624,10 +15625,10 @@
       <c r="HO91" s="15"/>
     </row>
     <row r="92" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="51" t="s">
+      <c r="A92" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="39">
+      <c r="B92" s="34">
         <v>1551.87</v>
       </c>
       <c r="C92" s="17"/>
@@ -15856,10 +15857,10 @@
       <c r="HO92" s="15"/>
     </row>
     <row r="93" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="39">
+      <c r="B93" s="34">
         <v>1150.8699999999999</v>
       </c>
       <c r="C93" s="17"/>
@@ -15872,10 +15873,10 @@
       </c>
     </row>
     <row r="94" spans="1:223" s="14" customFormat="1" hidden="1">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="39">
+      <c r="B94" s="34">
         <v>1004.39</v>
       </c>
       <c r="C94" s="17"/>
@@ -15884,108 +15885,106 @@
         <v>0</v>
       </c>
       <c r="E94" s="18"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="32"/>
-      <c r="T94" s="32"/>
-      <c r="U94" s="32"/>
-      <c r="V94" s="32"/>
-      <c r="W94" s="32"/>
-      <c r="X94" s="32"/>
-      <c r="Y94" s="32"/>
-      <c r="Z94" s="32"/>
-      <c r="AA94" s="32"/>
-      <c r="AB94" s="32"/>
-      <c r="AC94" s="32"/>
-      <c r="AD94" s="32"/>
-      <c r="AE94" s="32"/>
-      <c r="AF94" s="32"/>
-      <c r="AG94" s="32"/>
-      <c r="AH94" s="32"/>
-      <c r="AI94" s="32"/>
-      <c r="AJ94" s="32"/>
-      <c r="AK94" s="32"/>
-      <c r="AL94" s="32"/>
-      <c r="AM94" s="32"/>
-      <c r="AN94" s="32"/>
-      <c r="AO94" s="32"/>
-      <c r="AP94" s="32"/>
-      <c r="AQ94" s="32"/>
-      <c r="AR94" s="32"/>
-      <c r="AS94" s="32"/>
-      <c r="AT94" s="32"/>
-      <c r="AU94" s="32"/>
-      <c r="AV94" s="32"/>
-      <c r="AW94" s="32"/>
-      <c r="AX94" s="32"/>
-      <c r="AY94" s="32"/>
-      <c r="AZ94" s="32"/>
-      <c r="BA94" s="32"/>
-      <c r="BB94" s="32"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="31"/>
+      <c r="R94" s="31"/>
+      <c r="S94" s="31"/>
+      <c r="T94" s="31"/>
+      <c r="U94" s="31"/>
+      <c r="V94" s="31"/>
+      <c r="W94" s="31"/>
+      <c r="X94" s="31"/>
+      <c r="Y94" s="31"/>
+      <c r="Z94" s="31"/>
+      <c r="AA94" s="31"/>
+      <c r="AB94" s="31"/>
+      <c r="AC94" s="31"/>
+      <c r="AD94" s="31"/>
+      <c r="AE94" s="31"/>
+      <c r="AF94" s="31"/>
+      <c r="AG94" s="31"/>
+      <c r="AH94" s="31"/>
+      <c r="AI94" s="31"/>
+      <c r="AJ94" s="31"/>
+      <c r="AK94" s="31"/>
+      <c r="AL94" s="31"/>
+      <c r="AM94" s="31"/>
+      <c r="AN94" s="31"/>
+      <c r="AO94" s="31"/>
+      <c r="AP94" s="31"/>
+      <c r="AQ94" s="31"/>
+      <c r="AR94" s="31"/>
+      <c r="AS94" s="31"/>
+      <c r="AT94" s="31"/>
+      <c r="AU94" s="31"/>
+      <c r="AV94" s="31"/>
+      <c r="AW94" s="31"/>
+      <c r="AX94" s="31"/>
+      <c r="AY94" s="31"/>
+      <c r="AZ94" s="31"/>
+      <c r="BA94" s="31"/>
+      <c r="BB94" s="31"/>
     </row>
-    <row r="95" spans="1:223" ht="15" customHeight="1">
-      <c r="A95" s="51" t="s">
+    <row r="95" spans="1:223" ht="15" hidden="1" customHeight="1">
+      <c r="A95" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="B95" s="39">
+      <c r="B95" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C95" s="17">
-        <v>20</v>
-      </c>
+      <c r="C95" s="17"/>
       <c r="D95" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="33"/>
-      <c r="R95" s="33"/>
-      <c r="S95" s="33"/>
-      <c r="T95" s="33"/>
-      <c r="U95" s="33"/>
-      <c r="V95" s="33"/>
-      <c r="W95" s="33"/>
-      <c r="X95" s="33"/>
-      <c r="Y95" s="33"/>
-      <c r="Z95" s="33"/>
-      <c r="AA95" s="33"/>
-      <c r="AB95" s="33"/>
-      <c r="AC95" s="33"/>
-      <c r="AD95" s="33"/>
-      <c r="AE95" s="33"/>
-      <c r="AF95" s="33"/>
-      <c r="AG95" s="33"/>
-      <c r="AH95" s="33"/>
-      <c r="AI95" s="33"/>
-      <c r="AJ95" s="33"/>
-      <c r="AK95" s="33"/>
-      <c r="AL95" s="33"/>
-      <c r="AM95" s="33"/>
-      <c r="AN95" s="33"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="32"/>
+      <c r="U95" s="32"/>
+      <c r="V95" s="32"/>
+      <c r="W95" s="32"/>
+      <c r="X95" s="32"/>
+      <c r="Y95" s="32"/>
+      <c r="Z95" s="32"/>
+      <c r="AA95" s="32"/>
+      <c r="AB95" s="32"/>
+      <c r="AC95" s="32"/>
+      <c r="AD95" s="32"/>
+      <c r="AE95" s="32"/>
+      <c r="AF95" s="32"/>
+      <c r="AG95" s="32"/>
+      <c r="AH95" s="32"/>
+      <c r="AI95" s="32"/>
+      <c r="AJ95" s="32"/>
+      <c r="AK95" s="32"/>
+      <c r="AL95" s="32"/>
+      <c r="AM95" s="32"/>
+      <c r="AN95" s="32"/>
       <c r="AO95" s="15"/>
       <c r="AP95" s="15"/>
       <c r="AQ95" s="15"/>
@@ -16171,10 +16170,10 @@
       <c r="HO95" s="15"/>
     </row>
     <row r="96" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B96" s="34">
         <v>1403.33</v>
       </c>
       <c r="C96" s="17"/>
@@ -16405,10 +16404,10 @@
       <c r="HO96" s="15"/>
     </row>
     <row r="97" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="39">
+      <c r="B97" s="34">
         <v>1170.92</v>
       </c>
       <c r="C97" s="17"/>
@@ -16637,10 +16636,10 @@
       <c r="HO97" s="15"/>
     </row>
     <row r="98" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="50" t="s">
+      <c r="A98" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B98" s="34">
         <v>985.46</v>
       </c>
       <c r="C98" s="17"/>
@@ -16871,10 +16870,10 @@
       <c r="HO98" s="15"/>
     </row>
     <row r="99" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="50" t="s">
+      <c r="A99" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B99" s="39">
+      <c r="B99" s="34">
         <v>1178.94</v>
       </c>
       <c r="C99" s="17"/>
@@ -16887,10 +16886,10 @@
       </c>
     </row>
     <row r="100" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A100" s="50" t="s">
+      <c r="A100" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="39">
+      <c r="B100" s="34">
         <v>1062.6500000000001</v>
       </c>
       <c r="C100" s="17"/>
@@ -16902,64 +16901,62 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:223" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="50" t="s">
+    <row r="101" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A101" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="B101" s="39">
+      <c r="B101" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C101" s="17">
-        <v>20</v>
-      </c>
+      <c r="C101" s="17"/>
       <c r="D101" s="18">
         <f t="shared" ref="D101:D132" si="3">B101*C101</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
-      <c r="Q101" s="32"/>
-      <c r="R101" s="32"/>
-      <c r="S101" s="32"/>
-      <c r="T101" s="32"/>
-      <c r="U101" s="32"/>
-      <c r="V101" s="32"/>
-      <c r="W101" s="32"/>
-      <c r="X101" s="32"/>
-      <c r="Y101" s="32"/>
-      <c r="Z101" s="32"/>
-      <c r="AA101" s="32"/>
-      <c r="AB101" s="32"/>
-      <c r="AC101" s="32"/>
-      <c r="AD101" s="32"/>
-      <c r="AE101" s="32"/>
-      <c r="AF101" s="32"/>
-      <c r="AG101" s="32"/>
-      <c r="AH101" s="32"/>
-      <c r="AI101" s="32"/>
-      <c r="AJ101" s="32"/>
-      <c r="AK101" s="32"/>
-      <c r="AL101" s="32"/>
-      <c r="AM101" s="32"/>
-      <c r="AN101" s="32"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="31"/>
+      <c r="R101" s="31"/>
+      <c r="S101" s="31"/>
+      <c r="T101" s="31"/>
+      <c r="U101" s="31"/>
+      <c r="V101" s="31"/>
+      <c r="W101" s="31"/>
+      <c r="X101" s="31"/>
+      <c r="Y101" s="31"/>
+      <c r="Z101" s="31"/>
+      <c r="AA101" s="31"/>
+      <c r="AB101" s="31"/>
+      <c r="AC101" s="31"/>
+      <c r="AD101" s="31"/>
+      <c r="AE101" s="31"/>
+      <c r="AF101" s="31"/>
+      <c r="AG101" s="31"/>
+      <c r="AH101" s="31"/>
+      <c r="AI101" s="31"/>
+      <c r="AJ101" s="31"/>
+      <c r="AK101" s="31"/>
+      <c r="AL101" s="31"/>
+      <c r="AM101" s="31"/>
+      <c r="AN101" s="31"/>
     </row>
     <row r="102" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B102" s="34">
         <v>945.36</v>
       </c>
       <c r="C102" s="17"/>
@@ -16970,10 +16967,10 @@
       <c r="E102" s="18"/>
     </row>
     <row r="103" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B103" s="39">
+      <c r="B103" s="34">
         <v>1072.68</v>
       </c>
       <c r="C103" s="17"/>
@@ -17204,10 +17201,10 @@
       <c r="HO103" s="15"/>
     </row>
     <row r="104" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A104" s="51" t="s">
+      <c r="A104" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="39">
+      <c r="B104" s="34">
         <v>1024.5550000000001</v>
       </c>
       <c r="C104" s="17"/>
@@ -17438,10 +17435,10 @@
       <c r="HO104" s="15"/>
     </row>
     <row r="105" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B105" s="39">
+      <c r="B105" s="34">
         <v>1024.56</v>
       </c>
       <c r="C105" s="17"/>
@@ -17670,10 +17667,10 @@
       <c r="HO105" s="15"/>
     </row>
     <row r="106" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B106" s="39">
+      <c r="B106" s="34">
         <v>1101.75</v>
       </c>
       <c r="C106" s="17"/>
@@ -17902,10 +17899,10 @@
       <c r="HO106" s="15"/>
     </row>
     <row r="107" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="39">
+      <c r="B107" s="34">
         <v>1297.24</v>
       </c>
       <c r="C107" s="17"/>
@@ -18136,10 +18133,10 @@
       <c r="HO107" s="15"/>
     </row>
     <row r="108" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B108" s="39">
+      <c r="B108" s="34">
         <v>1297.24</v>
       </c>
       <c r="C108" s="17"/>
@@ -18148,55 +18145,55 @@
         <v>0</v>
       </c>
       <c r="E108" s="18"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33"/>
-      <c r="O108" s="33"/>
-      <c r="P108" s="33"/>
-      <c r="Q108" s="33"/>
-      <c r="R108" s="33"/>
-      <c r="S108" s="33"/>
-      <c r="T108" s="33"/>
-      <c r="U108" s="33"/>
-      <c r="V108" s="33"/>
-      <c r="W108" s="33"/>
-      <c r="X108" s="33"/>
-      <c r="Y108" s="33"/>
-      <c r="Z108" s="33"/>
-      <c r="AA108" s="33"/>
-      <c r="AB108" s="33"/>
-      <c r="AC108" s="33"/>
-      <c r="AD108" s="33"/>
-      <c r="AE108" s="33"/>
-      <c r="AF108" s="33"/>
-      <c r="AG108" s="33"/>
-      <c r="AH108" s="33"/>
-      <c r="AI108" s="33"/>
-      <c r="AJ108" s="33"/>
-      <c r="AK108" s="33"/>
-      <c r="AL108" s="33"/>
-      <c r="AM108" s="33"/>
-      <c r="AN108" s="33"/>
-      <c r="AO108" s="33"/>
-      <c r="AP108" s="33"/>
-      <c r="AQ108" s="33"/>
-      <c r="AR108" s="33"/>
-      <c r="AS108" s="33"/>
-      <c r="AT108" s="33"/>
-      <c r="AU108" s="33"/>
-      <c r="AV108" s="33"/>
-      <c r="AW108" s="33"/>
-      <c r="AX108" s="33"/>
-      <c r="AY108" s="33"/>
-      <c r="AZ108" s="33"/>
-      <c r="BA108" s="33"/>
-      <c r="BB108" s="33"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32"/>
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32"/>
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32"/>
+      <c r="AI108" s="32"/>
+      <c r="AJ108" s="32"/>
+      <c r="AK108" s="32"/>
+      <c r="AL108" s="32"/>
+      <c r="AM108" s="32"/>
+      <c r="AN108" s="32"/>
+      <c r="AO108" s="32"/>
+      <c r="AP108" s="32"/>
+      <c r="AQ108" s="32"/>
+      <c r="AR108" s="32"/>
+      <c r="AS108" s="32"/>
+      <c r="AT108" s="32"/>
+      <c r="AU108" s="32"/>
+      <c r="AV108" s="32"/>
+      <c r="AW108" s="32"/>
+      <c r="AX108" s="32"/>
+      <c r="AY108" s="32"/>
+      <c r="AZ108" s="32"/>
+      <c r="BA108" s="32"/>
+      <c r="BB108" s="32"/>
       <c r="BC108" s="15"/>
       <c r="BD108" s="15"/>
       <c r="BE108" s="15"/>
@@ -18368,10 +18365,10 @@
       <c r="HO108" s="15"/>
     </row>
     <row r="109" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A109" s="51" t="s">
+      <c r="A109" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="B109" s="39">
+      <c r="B109" s="34">
         <v>1150.8699999999999</v>
       </c>
       <c r="C109" s="17"/>
@@ -18433,10 +18430,10 @@
       <c r="BB109" s="14"/>
     </row>
     <row r="110" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="39">
+      <c r="B110" s="34">
         <v>12215.46</v>
       </c>
       <c r="C110" s="17"/>
@@ -18496,10 +18493,10 @@
       <c r="BB110" s="14"/>
     </row>
     <row r="111" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B111" s="39">
+      <c r="B111" s="34">
         <v>1695.2280000000001</v>
       </c>
       <c r="C111" s="17"/>
@@ -18559,10 +18556,10 @@
       <c r="BB111" s="14"/>
     </row>
     <row r="112" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A112" s="50" t="s">
+      <c r="A112" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="B112" s="39">
+      <c r="B112" s="34">
         <v>11860.475</v>
       </c>
       <c r="C112" s="17"/>
@@ -18791,10 +18788,10 @@
       <c r="HO112" s="15"/>
     </row>
     <row r="113" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="39">
+      <c r="B113" s="34">
         <v>10616.475</v>
       </c>
       <c r="C113" s="17"/>
@@ -18803,55 +18800,55 @@
         <v>0</v>
       </c>
       <c r="E113" s="18"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="33"/>
-      <c r="O113" s="33"/>
-      <c r="P113" s="33"/>
-      <c r="Q113" s="33"/>
-      <c r="R113" s="33"/>
-      <c r="S113" s="33"/>
-      <c r="T113" s="33"/>
-      <c r="U113" s="33"/>
-      <c r="V113" s="33"/>
-      <c r="W113" s="33"/>
-      <c r="X113" s="33"/>
-      <c r="Y113" s="33"/>
-      <c r="Z113" s="33"/>
-      <c r="AA113" s="33"/>
-      <c r="AB113" s="33"/>
-      <c r="AC113" s="33"/>
-      <c r="AD113" s="33"/>
-      <c r="AE113" s="33"/>
-      <c r="AF113" s="33"/>
-      <c r="AG113" s="33"/>
-      <c r="AH113" s="33"/>
-      <c r="AI113" s="33"/>
-      <c r="AJ113" s="33"/>
-      <c r="AK113" s="33"/>
-      <c r="AL113" s="33"/>
-      <c r="AM113" s="33"/>
-      <c r="AN113" s="33"/>
-      <c r="AO113" s="33"/>
-      <c r="AP113" s="33"/>
-      <c r="AQ113" s="33"/>
-      <c r="AR113" s="33"/>
-      <c r="AS113" s="33"/>
-      <c r="AT113" s="33"/>
-      <c r="AU113" s="33"/>
-      <c r="AV113" s="33"/>
-      <c r="AW113" s="33"/>
-      <c r="AX113" s="33"/>
-      <c r="AY113" s="33"/>
-      <c r="AZ113" s="33"/>
-      <c r="BA113" s="33"/>
-      <c r="BB113" s="33"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="32"/>
+      <c r="AJ113" s="32"/>
+      <c r="AK113" s="32"/>
+      <c r="AL113" s="32"/>
+      <c r="AM113" s="32"/>
+      <c r="AN113" s="32"/>
+      <c r="AO113" s="32"/>
+      <c r="AP113" s="32"/>
+      <c r="AQ113" s="32"/>
+      <c r="AR113" s="32"/>
+      <c r="AS113" s="32"/>
+      <c r="AT113" s="32"/>
+      <c r="AU113" s="32"/>
+      <c r="AV113" s="32"/>
+      <c r="AW113" s="32"/>
+      <c r="AX113" s="32"/>
+      <c r="AY113" s="32"/>
+      <c r="AZ113" s="32"/>
+      <c r="BA113" s="32"/>
+      <c r="BB113" s="32"/>
       <c r="BC113" s="15"/>
       <c r="BD113" s="15"/>
       <c r="BE113" s="15"/>
@@ -19023,10 +19020,10 @@
       <c r="HO113" s="15"/>
     </row>
     <row r="114" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A114" s="50" t="s">
+      <c r="A114" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="B114" s="39">
+      <c r="B114" s="34">
         <v>5607.32</v>
       </c>
       <c r="C114" s="17"/>
@@ -19257,10 +19254,10 @@
       <c r="HO114" s="15"/>
     </row>
     <row r="115" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="39">
+      <c r="B115" s="34">
         <v>14021.94</v>
       </c>
       <c r="C115" s="17"/>
@@ -19489,10 +19486,10 @@
       <c r="HO115" s="15"/>
     </row>
     <row r="116" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="39">
+      <c r="B116" s="34">
         <v>2788.96</v>
       </c>
       <c r="C116" s="17"/>
@@ -19723,10 +19720,10 @@
       <c r="HO116" s="15"/>
     </row>
     <row r="117" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A117" s="50" t="s">
+      <c r="A117" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="39">
+      <c r="B117" s="34">
         <v>10133.27</v>
       </c>
       <c r="C117" s="17"/>
@@ -19955,10 +19952,10 @@
       <c r="HO117" s="15"/>
     </row>
     <row r="118" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A118" s="50" t="s">
+      <c r="A118" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="39">
+      <c r="B118" s="34">
         <v>17443.5</v>
       </c>
       <c r="C118" s="17"/>
@@ -20187,10 +20184,10 @@
       <c r="HO118" s="15"/>
     </row>
     <row r="119" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A119" s="50" t="s">
+      <c r="A119" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B119" s="39">
+      <c r="B119" s="34">
         <v>1159.8900000000001</v>
       </c>
       <c r="C119" s="17"/>
@@ -20421,10 +20418,10 @@
       <c r="HO119" s="15"/>
     </row>
     <row r="120" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A120" s="50" t="s">
+      <c r="A120" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B120" s="34">
         <v>1072.675</v>
       </c>
       <c r="C120" s="17"/>
@@ -20653,10 +20650,10 @@
       <c r="HO120" s="15"/>
     </row>
     <row r="121" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A121" s="51" t="s">
+      <c r="A121" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B121" s="39">
+      <c r="B121" s="34">
         <v>12691.65</v>
       </c>
       <c r="C121" s="17"/>
@@ -20885,10 +20882,10 @@
       <c r="HO121" s="15"/>
     </row>
     <row r="122" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="51" t="s">
+      <c r="A122" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="39">
+      <c r="B122" s="34">
         <v>5476.38</v>
       </c>
       <c r="C122" s="17"/>
@@ -20948,10 +20945,10 @@
       <c r="BB122" s="14"/>
     </row>
     <row r="123" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B123" s="39">
+      <c r="B123" s="34">
         <v>7586.92</v>
       </c>
       <c r="C123" s="17"/>
@@ -21180,10 +21177,10 @@
       <c r="HO123" s="15"/>
     </row>
     <row r="124" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A124" s="51" t="s">
+      <c r="A124" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B124" s="34">
         <v>7679.15</v>
       </c>
       <c r="C124" s="17"/>
@@ -21412,10 +21409,10 @@
       <c r="HO124" s="15"/>
     </row>
     <row r="125" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A125" s="50" t="s">
+      <c r="A125" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="39">
+      <c r="B125" s="34">
         <v>1219.04</v>
       </c>
       <c r="C125" s="17"/>
@@ -21426,55 +21423,55 @@
       <c r="E125" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="J125" s="33"/>
-      <c r="K125" s="33"/>
-      <c r="L125" s="33"/>
-      <c r="M125" s="33"/>
-      <c r="N125" s="33"/>
-      <c r="O125" s="33"/>
-      <c r="P125" s="33"/>
-      <c r="Q125" s="33"/>
-      <c r="R125" s="33"/>
-      <c r="S125" s="33"/>
-      <c r="T125" s="33"/>
-      <c r="U125" s="33"/>
-      <c r="V125" s="33"/>
-      <c r="W125" s="33"/>
-      <c r="X125" s="33"/>
-      <c r="Y125" s="33"/>
-      <c r="Z125" s="33"/>
-      <c r="AA125" s="33"/>
-      <c r="AB125" s="33"/>
-      <c r="AC125" s="33"/>
-      <c r="AD125" s="33"/>
-      <c r="AE125" s="33"/>
-      <c r="AF125" s="33"/>
-      <c r="AG125" s="33"/>
-      <c r="AH125" s="33"/>
-      <c r="AI125" s="33"/>
-      <c r="AJ125" s="33"/>
-      <c r="AK125" s="33"/>
-      <c r="AL125" s="33"/>
-      <c r="AM125" s="33"/>
-      <c r="AN125" s="33"/>
-      <c r="AO125" s="33"/>
-      <c r="AP125" s="33"/>
-      <c r="AQ125" s="33"/>
-      <c r="AR125" s="33"/>
-      <c r="AS125" s="33"/>
-      <c r="AT125" s="33"/>
-      <c r="AU125" s="33"/>
-      <c r="AV125" s="33"/>
-      <c r="AW125" s="33"/>
-      <c r="AX125" s="33"/>
-      <c r="AY125" s="33"/>
-      <c r="AZ125" s="33"/>
-      <c r="BA125" s="33"/>
-      <c r="BB125" s="33"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="32"/>
+      <c r="S125" s="32"/>
+      <c r="T125" s="32"/>
+      <c r="U125" s="32"/>
+      <c r="V125" s="32"/>
+      <c r="W125" s="32"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="32"/>
+      <c r="Z125" s="32"/>
+      <c r="AA125" s="32"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="32"/>
+      <c r="AD125" s="32"/>
+      <c r="AE125" s="32"/>
+      <c r="AF125" s="32"/>
+      <c r="AG125" s="32"/>
+      <c r="AH125" s="32"/>
+      <c r="AI125" s="32"/>
+      <c r="AJ125" s="32"/>
+      <c r="AK125" s="32"/>
+      <c r="AL125" s="32"/>
+      <c r="AM125" s="32"/>
+      <c r="AN125" s="32"/>
+      <c r="AO125" s="32"/>
+      <c r="AP125" s="32"/>
+      <c r="AQ125" s="32"/>
+      <c r="AR125" s="32"/>
+      <c r="AS125" s="32"/>
+      <c r="AT125" s="32"/>
+      <c r="AU125" s="32"/>
+      <c r="AV125" s="32"/>
+      <c r="AW125" s="32"/>
+      <c r="AX125" s="32"/>
+      <c r="AY125" s="32"/>
+      <c r="AZ125" s="32"/>
+      <c r="BA125" s="32"/>
+      <c r="BB125" s="32"/>
       <c r="BC125" s="15"/>
       <c r="BD125" s="15"/>
       <c r="BE125" s="15"/>
@@ -21646,10 +21643,10 @@
       <c r="HO125" s="15"/>
     </row>
     <row r="126" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B126" s="39">
+      <c r="B126" s="34">
         <v>1336.33</v>
       </c>
       <c r="C126" s="17"/>
@@ -21880,10 +21877,10 @@
       <c r="HO126" s="15"/>
     </row>
     <row r="127" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A127" s="50" t="s">
+      <c r="A127" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="39">
+      <c r="B127" s="34">
         <v>1188.97</v>
       </c>
       <c r="C127" s="17"/>
@@ -22112,10 +22109,10 @@
       <c r="HO127" s="15"/>
     </row>
     <row r="128" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A128" s="50" t="s">
+      <c r="A128" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="39">
+      <c r="B128" s="34">
         <v>1336.33</v>
       </c>
       <c r="C128" s="17"/>
@@ -22344,10 +22341,10 @@
       <c r="HO128" s="15"/>
     </row>
     <row r="129" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A129" s="50" t="s">
+      <c r="A129" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="39">
+      <c r="B129" s="34">
         <v>8641.5499999999993</v>
       </c>
       <c r="C129" s="17"/>
@@ -22575,72 +22572,70 @@
       <c r="HN129" s="15"/>
       <c r="HO129" s="15"/>
     </row>
-    <row r="130" spans="1:223" ht="15" customHeight="1" thickBot="1">
-      <c r="A130" s="50" t="s">
+    <row r="130" spans="1:223" ht="15" hidden="1" customHeight="1">
+      <c r="A130" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B130" s="39">
+      <c r="B130" s="34">
         <v>1208.01</v>
       </c>
-      <c r="C130" s="17">
-        <v>20</v>
-      </c>
+      <c r="C130" s="17"/>
       <c r="D130" s="18">
         <f t="shared" si="3"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
-      <c r="L130" s="33"/>
-      <c r="M130" s="33"/>
-      <c r="N130" s="33"/>
-      <c r="O130" s="33"/>
-      <c r="P130" s="33"/>
-      <c r="Q130" s="33"/>
-      <c r="R130" s="33"/>
-      <c r="S130" s="33"/>
-      <c r="T130" s="33"/>
-      <c r="U130" s="33"/>
-      <c r="V130" s="33"/>
-      <c r="W130" s="33"/>
-      <c r="X130" s="33"/>
-      <c r="Y130" s="33"/>
-      <c r="Z130" s="33"/>
-      <c r="AA130" s="33"/>
-      <c r="AB130" s="33"/>
-      <c r="AC130" s="33"/>
-      <c r="AD130" s="33"/>
-      <c r="AE130" s="33"/>
-      <c r="AF130" s="33"/>
-      <c r="AG130" s="33"/>
-      <c r="AH130" s="33"/>
-      <c r="AI130" s="33"/>
-      <c r="AJ130" s="33"/>
-      <c r="AK130" s="33"/>
-      <c r="AL130" s="33"/>
-      <c r="AM130" s="33"/>
-      <c r="AN130" s="33"/>
-      <c r="AO130" s="33"/>
-      <c r="AP130" s="33"/>
-      <c r="AQ130" s="33"/>
-      <c r="AR130" s="33"/>
-      <c r="AS130" s="33"/>
-      <c r="AT130" s="33"/>
-      <c r="AU130" s="33"/>
-      <c r="AV130" s="33"/>
-      <c r="AW130" s="33"/>
-      <c r="AX130" s="33"/>
-      <c r="AY130" s="33"/>
-      <c r="AZ130" s="33"/>
-      <c r="BA130" s="33"/>
-      <c r="BB130" s="33"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
+      <c r="L130" s="32"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="32"/>
+      <c r="T130" s="32"/>
+      <c r="U130" s="32"/>
+      <c r="V130" s="32"/>
+      <c r="W130" s="32"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="32"/>
+      <c r="Z130" s="32"/>
+      <c r="AA130" s="32"/>
+      <c r="AB130" s="32"/>
+      <c r="AC130" s="32"/>
+      <c r="AD130" s="32"/>
+      <c r="AE130" s="32"/>
+      <c r="AF130" s="32"/>
+      <c r="AG130" s="32"/>
+      <c r="AH130" s="32"/>
+      <c r="AI130" s="32"/>
+      <c r="AJ130" s="32"/>
+      <c r="AK130" s="32"/>
+      <c r="AL130" s="32"/>
+      <c r="AM130" s="32"/>
+      <c r="AN130" s="32"/>
+      <c r="AO130" s="32"/>
+      <c r="AP130" s="32"/>
+      <c r="AQ130" s="32"/>
+      <c r="AR130" s="32"/>
+      <c r="AS130" s="32"/>
+      <c r="AT130" s="32"/>
+      <c r="AU130" s="32"/>
+      <c r="AV130" s="32"/>
+      <c r="AW130" s="32"/>
+      <c r="AX130" s="32"/>
+      <c r="AY130" s="32"/>
+      <c r="AZ130" s="32"/>
+      <c r="BA130" s="32"/>
+      <c r="BB130" s="32"/>
       <c r="BC130" s="15"/>
       <c r="BD130" s="15"/>
       <c r="BE130" s="15"/>
@@ -22812,10 +22807,10 @@
       <c r="HO130" s="15"/>
     </row>
     <row r="131" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A131" s="50" t="s">
+      <c r="A131" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="B131" s="39">
+      <c r="B131" s="34">
         <v>3520.36</v>
       </c>
       <c r="C131" s="17"/>
@@ -23046,10 +23041,10 @@
       <c r="HO131" s="15"/>
     </row>
     <row r="132" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A132" s="50" t="s">
+      <c r="A132" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B132" s="39">
+      <c r="B132" s="34">
         <v>3793.1</v>
       </c>
       <c r="C132" s="17"/>
@@ -23280,10 +23275,10 @@
       <c r="HO132" s="15"/>
     </row>
     <row r="133" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A133" s="50" t="s">
+      <c r="A133" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="B133" s="39">
+      <c r="B133" s="34">
         <v>4174.41</v>
       </c>
       <c r="C133" s="17"/>
@@ -23514,10 +23509,10 @@
       <c r="HO133" s="15"/>
     </row>
     <row r="134" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A134" s="50" t="s">
+      <c r="A134" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="39">
+      <c r="B134" s="34">
         <v>4174.41</v>
       </c>
       <c r="C134" s="17"/>
@@ -23745,10 +23740,10 @@
       <c r="HO134" s="15"/>
     </row>
     <row r="135" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A135" s="50" t="s">
+      <c r="A135" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B135" s="39">
+      <c r="B135" s="34">
         <v>5510.74</v>
       </c>
       <c r="C135" s="17"/>
@@ -23977,10 +23972,10 @@
       <c r="HO135" s="15"/>
     </row>
     <row r="136" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="50" t="s">
+      <c r="A136" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B136" s="39">
+      <c r="B136" s="34">
         <v>4896.21</v>
       </c>
       <c r="C136" s="17"/>
@@ -24209,10 +24204,10 @@
       <c r="HO136" s="15"/>
     </row>
     <row r="137" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A137" s="51" t="s">
+      <c r="A137" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="B137" s="39">
+      <c r="B137" s="34">
         <v>4076.68</v>
       </c>
       <c r="C137" s="17"/>
@@ -24220,15 +24215,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E137" s="53" t="s">
+      <c r="E137" s="45" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A138" s="50" t="s">
+      <c r="A138" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B138" s="39">
+      <c r="B138" s="34">
         <v>5150.8500000000004</v>
       </c>
       <c r="C138" s="17"/>
@@ -24236,13 +24231,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E138" s="54"/>
+      <c r="E138" s="46"/>
     </row>
     <row r="139" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A139" s="50" t="s">
+      <c r="A139" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B139" s="39">
+      <c r="B139" s="34">
         <v>4973.3999999999996</v>
       </c>
       <c r="C139" s="17"/>
@@ -24253,10 +24248,10 @@
       <c r="E139" s="18"/>
     </row>
     <row r="140" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="50" t="s">
+      <c r="A140" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="39">
+      <c r="B140" s="34">
         <v>5423.53</v>
       </c>
       <c r="C140" s="17"/>
@@ -24267,10 +24262,10 @@
       <c r="E140" s="18"/>
     </row>
     <row r="141" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="50" t="s">
+      <c r="A141" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B141" s="39">
+      <c r="B141" s="34">
         <v>5940.82</v>
       </c>
       <c r="C141" s="17"/>
@@ -24281,10 +24276,10 @@
       <c r="E141" s="18"/>
     </row>
     <row r="142" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="51" t="s">
+      <c r="A142" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B142" s="39">
+      <c r="B142" s="34">
         <v>4438.07</v>
       </c>
       <c r="C142" s="17"/>
@@ -24297,10 +24292,10 @@
       </c>
     </row>
     <row r="143" spans="1:223" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="51" t="s">
+      <c r="A143" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B143" s="39">
+      <c r="B143" s="34">
         <v>3558.64</v>
       </c>
       <c r="C143" s="17"/>
@@ -24311,10 +24306,10 @@
       <c r="E143" s="18"/>
     </row>
     <row r="144" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="50" t="s">
+      <c r="A144" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B144" s="43">
+      <c r="B144" s="38">
         <v>3257.12</v>
       </c>
       <c r="C144" s="17"/>
@@ -24545,10 +24540,10 @@
       <c r="HO144" s="15"/>
     </row>
     <row r="145" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="51" t="s">
+      <c r="A145" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B145" s="39">
+      <c r="B145" s="34">
         <v>4389.43</v>
       </c>
       <c r="C145" s="17"/>
@@ -24779,10 +24774,10 @@
       <c r="HO145" s="15"/>
     </row>
     <row r="146" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B146" s="39">
+      <c r="B146" s="34">
         <v>4389.95</v>
       </c>
       <c r="C146" s="19"/>
@@ -25011,10 +25006,10 @@
       <c r="HO146" s="15"/>
     </row>
     <row r="147" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="51" t="s">
+      <c r="A147" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B147" s="39">
+      <c r="B147" s="34">
         <v>5257.11</v>
       </c>
       <c r="C147" s="17"/>
@@ -25022,7 +25017,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E147" s="53" t="s">
+      <c r="E147" s="45" t="s">
         <v>227</v>
       </c>
       <c r="F147" s="15"/>
@@ -25245,10 +25240,10 @@
       <c r="HO147" s="15"/>
     </row>
     <row r="148" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="51" t="s">
+      <c r="A148" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B148" s="43">
+      <c r="B148" s="38">
         <v>3934.81</v>
       </c>
       <c r="C148" s="17"/>
@@ -25477,10 +25472,10 @@
       <c r="HO148" s="15"/>
     </row>
     <row r="149" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="51" t="s">
+      <c r="A149" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B149" s="43">
+      <c r="B149" s="38">
         <v>4027.04</v>
       </c>
       <c r="C149" s="17"/>
@@ -25711,10 +25706,10 @@
       <c r="HO149" s="15"/>
     </row>
     <row r="150" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A150" s="51" t="s">
+      <c r="A150" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B150" s="43">
+      <c r="B150" s="38">
         <v>3891.71</v>
       </c>
       <c r="C150" s="17"/>
@@ -25945,10 +25940,10 @@
       <c r="HO150" s="15"/>
     </row>
     <row r="151" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A151" s="51" t="s">
+      <c r="A151" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="39">
+      <c r="B151" s="34">
         <v>4507.24</v>
       </c>
       <c r="C151" s="17"/>
@@ -26177,10 +26172,10 @@
       <c r="HO151" s="15"/>
     </row>
     <row r="152" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A152" s="51" t="s">
+      <c r="A152" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B152" s="39">
+      <c r="B152" s="34">
         <v>4409</v>
       </c>
       <c r="C152" s="17"/>
@@ -26409,10 +26404,10 @@
       <c r="HO152" s="15"/>
     </row>
     <row r="153" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A153" s="51" t="s">
+      <c r="A153" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="B153" s="39">
+      <c r="B153" s="34">
         <v>4165.3900000000003</v>
       </c>
       <c r="C153" s="17"/>
@@ -26420,7 +26415,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E153" s="54" t="s">
+      <c r="E153" s="46" t="s">
         <v>209</v>
       </c>
       <c r="F153" s="15"/>
@@ -26643,10 +26638,10 @@
       <c r="HO153" s="15"/>
     </row>
     <row r="154" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A154" s="51" t="s">
+      <c r="A154" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="B154" s="39">
+      <c r="B154" s="34">
         <v>3617.59</v>
       </c>
       <c r="C154" s="17"/>
@@ -26877,10 +26872,10 @@
       <c r="HO154" s="15"/>
     </row>
     <row r="155" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A155" s="50" t="s">
+      <c r="A155" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="B155" s="39">
+      <c r="B155" s="34">
         <v>3548.43</v>
       </c>
       <c r="C155" s="17"/>
@@ -26892,11 +26887,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:223" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
-      <c r="A156" s="50" t="s">
+    <row r="156" spans="1:223" s="14" customFormat="1" hidden="1">
+      <c r="A156" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B156" s="39">
+      <c r="B156" s="34">
         <v>4849.09</v>
       </c>
       <c r="C156" s="17"/>
@@ -26906,11 +26901,11 @@
       </c>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" spans="1:223" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
-      <c r="A157" s="50" t="s">
+    <row r="157" spans="1:223" s="14" customFormat="1" hidden="1">
+      <c r="A157" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="B157" s="39">
+      <c r="B157" s="34">
         <v>7165.87</v>
       </c>
       <c r="C157" s="17"/>
@@ -26923,10 +26918,10 @@
       </c>
     </row>
     <row r="158" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A158" s="50" t="s">
+      <c r="A158" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B158" s="39">
+      <c r="B158" s="34">
         <v>7691.27</v>
       </c>
       <c r="C158" s="17"/>
@@ -27155,10 +27150,10 @@
       <c r="HO158" s="15"/>
     </row>
     <row r="159" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A159" s="50" t="s">
+      <c r="A159" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="B159" s="39">
+      <c r="B159" s="34">
         <v>7593.04</v>
       </c>
       <c r="C159" s="17"/>
@@ -27169,55 +27164,55 @@
       <c r="E159" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="33"/>
-      <c r="L159" s="33"/>
-      <c r="M159" s="33"/>
-      <c r="N159" s="33"/>
-      <c r="O159" s="33"/>
-      <c r="P159" s="33"/>
-      <c r="Q159" s="33"/>
-      <c r="R159" s="33"/>
-      <c r="S159" s="33"/>
-      <c r="T159" s="33"/>
-      <c r="U159" s="33"/>
-      <c r="V159" s="33"/>
-      <c r="W159" s="33"/>
-      <c r="X159" s="33"/>
-      <c r="Y159" s="33"/>
-      <c r="Z159" s="33"/>
-      <c r="AA159" s="33"/>
-      <c r="AB159" s="33"/>
-      <c r="AC159" s="33"/>
-      <c r="AD159" s="33"/>
-      <c r="AE159" s="33"/>
-      <c r="AF159" s="33"/>
-      <c r="AG159" s="33"/>
-      <c r="AH159" s="33"/>
-      <c r="AI159" s="33"/>
-      <c r="AJ159" s="33"/>
-      <c r="AK159" s="33"/>
-      <c r="AL159" s="33"/>
-      <c r="AM159" s="33"/>
-      <c r="AN159" s="33"/>
-      <c r="AO159" s="33"/>
-      <c r="AP159" s="33"/>
-      <c r="AQ159" s="33"/>
-      <c r="AR159" s="33"/>
-      <c r="AS159" s="33"/>
-      <c r="AT159" s="33"/>
-      <c r="AU159" s="33"/>
-      <c r="AV159" s="33"/>
-      <c r="AW159" s="33"/>
-      <c r="AX159" s="33"/>
-      <c r="AY159" s="33"/>
-      <c r="AZ159" s="33"/>
-      <c r="BA159" s="33"/>
-      <c r="BB159" s="33"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32"/>
+      <c r="L159" s="32"/>
+      <c r="M159" s="32"/>
+      <c r="N159" s="32"/>
+      <c r="O159" s="32"/>
+      <c r="P159" s="32"/>
+      <c r="Q159" s="32"/>
+      <c r="R159" s="32"/>
+      <c r="S159" s="32"/>
+      <c r="T159" s="32"/>
+      <c r="U159" s="32"/>
+      <c r="V159" s="32"/>
+      <c r="W159" s="32"/>
+      <c r="X159" s="32"/>
+      <c r="Y159" s="32"/>
+      <c r="Z159" s="32"/>
+      <c r="AA159" s="32"/>
+      <c r="AB159" s="32"/>
+      <c r="AC159" s="32"/>
+      <c r="AD159" s="32"/>
+      <c r="AE159" s="32"/>
+      <c r="AF159" s="32"/>
+      <c r="AG159" s="32"/>
+      <c r="AH159" s="32"/>
+      <c r="AI159" s="32"/>
+      <c r="AJ159" s="32"/>
+      <c r="AK159" s="32"/>
+      <c r="AL159" s="32"/>
+      <c r="AM159" s="32"/>
+      <c r="AN159" s="32"/>
+      <c r="AO159" s="32"/>
+      <c r="AP159" s="32"/>
+      <c r="AQ159" s="32"/>
+      <c r="AR159" s="32"/>
+      <c r="AS159" s="32"/>
+      <c r="AT159" s="32"/>
+      <c r="AU159" s="32"/>
+      <c r="AV159" s="32"/>
+      <c r="AW159" s="32"/>
+      <c r="AX159" s="32"/>
+      <c r="AY159" s="32"/>
+      <c r="AZ159" s="32"/>
+      <c r="BA159" s="32"/>
+      <c r="BB159" s="32"/>
       <c r="BC159" s="15"/>
       <c r="BD159" s="15"/>
       <c r="BE159" s="15"/>
@@ -27389,10 +27384,10 @@
       <c r="HO159" s="15"/>
     </row>
     <row r="160" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A160" s="50" t="s">
+      <c r="A160" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="B160" s="39">
+      <c r="B160" s="34">
         <v>7066.79</v>
       </c>
       <c r="C160" s="17"/>
@@ -27403,41 +27398,41 @@
       <c r="E160" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="33"/>
-      <c r="K160" s="33"/>
-      <c r="L160" s="33"/>
-      <c r="M160" s="33"/>
-      <c r="N160" s="33"/>
-      <c r="O160" s="33"/>
-      <c r="P160" s="33"/>
-      <c r="Q160" s="33"/>
-      <c r="R160" s="33"/>
-      <c r="S160" s="33"/>
-      <c r="T160" s="33"/>
-      <c r="U160" s="33"/>
-      <c r="V160" s="33"/>
-      <c r="W160" s="33"/>
-      <c r="X160" s="33"/>
-      <c r="Y160" s="33"/>
-      <c r="Z160" s="33"/>
-      <c r="AA160" s="33"/>
-      <c r="AB160" s="33"/>
-      <c r="AC160" s="33"/>
-      <c r="AD160" s="33"/>
-      <c r="AE160" s="33"/>
-      <c r="AF160" s="33"/>
-      <c r="AG160" s="33"/>
-      <c r="AH160" s="33"/>
-      <c r="AI160" s="33"/>
-      <c r="AJ160" s="33"/>
-      <c r="AK160" s="33"/>
-      <c r="AL160" s="33"/>
-      <c r="AM160" s="33"/>
-      <c r="AN160" s="33"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="32"/>
+      <c r="L160" s="32"/>
+      <c r="M160" s="32"/>
+      <c r="N160" s="32"/>
+      <c r="O160" s="32"/>
+      <c r="P160" s="32"/>
+      <c r="Q160" s="32"/>
+      <c r="R160" s="32"/>
+      <c r="S160" s="32"/>
+      <c r="T160" s="32"/>
+      <c r="U160" s="32"/>
+      <c r="V160" s="32"/>
+      <c r="W160" s="32"/>
+      <c r="X160" s="32"/>
+      <c r="Y160" s="32"/>
+      <c r="Z160" s="32"/>
+      <c r="AA160" s="32"/>
+      <c r="AB160" s="32"/>
+      <c r="AC160" s="32"/>
+      <c r="AD160" s="32"/>
+      <c r="AE160" s="32"/>
+      <c r="AF160" s="32"/>
+      <c r="AG160" s="32"/>
+      <c r="AH160" s="32"/>
+      <c r="AI160" s="32"/>
+      <c r="AJ160" s="32"/>
+      <c r="AK160" s="32"/>
+      <c r="AL160" s="32"/>
+      <c r="AM160" s="32"/>
+      <c r="AN160" s="32"/>
       <c r="AO160" s="15"/>
       <c r="AP160" s="15"/>
       <c r="AQ160" s="15"/>
@@ -27623,10 +27618,10 @@
       <c r="HO160" s="15"/>
     </row>
     <row r="161" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A161" s="50" t="s">
+      <c r="A161" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="B161" s="39">
+      <c r="B161" s="34">
         <v>8101.24</v>
       </c>
       <c r="C161" s="17"/>
@@ -27855,10 +27850,10 @@
       <c r="HO161" s="15"/>
     </row>
     <row r="162" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A162" s="50" t="s">
+      <c r="A162" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="B162" s="39">
+      <c r="B162" s="34">
         <v>7501.24</v>
       </c>
       <c r="C162" s="17"/>
@@ -28087,10 +28082,10 @@
       <c r="HO162" s="15"/>
     </row>
     <row r="163" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A163" s="50" t="s">
+      <c r="A163" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="B163" s="39">
+      <c r="B163" s="34">
         <v>7778.48</v>
       </c>
       <c r="C163" s="17"/>
@@ -28101,55 +28096,55 @@
       <c r="E163" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
-      <c r="J163" s="33"/>
-      <c r="K163" s="33"/>
-      <c r="L163" s="33"/>
-      <c r="M163" s="33"/>
-      <c r="N163" s="33"/>
-      <c r="O163" s="33"/>
-      <c r="P163" s="33"/>
-      <c r="Q163" s="33"/>
-      <c r="R163" s="33"/>
-      <c r="S163" s="33"/>
-      <c r="T163" s="33"/>
-      <c r="U163" s="33"/>
-      <c r="V163" s="33"/>
-      <c r="W163" s="33"/>
-      <c r="X163" s="33"/>
-      <c r="Y163" s="33"/>
-      <c r="Z163" s="33"/>
-      <c r="AA163" s="33"/>
-      <c r="AB163" s="33"/>
-      <c r="AC163" s="33"/>
-      <c r="AD163" s="33"/>
-      <c r="AE163" s="33"/>
-      <c r="AF163" s="33"/>
-      <c r="AG163" s="33"/>
-      <c r="AH163" s="33"/>
-      <c r="AI163" s="33"/>
-      <c r="AJ163" s="33"/>
-      <c r="AK163" s="33"/>
-      <c r="AL163" s="33"/>
-      <c r="AM163" s="33"/>
-      <c r="AN163" s="33"/>
-      <c r="AO163" s="33"/>
-      <c r="AP163" s="33"/>
-      <c r="AQ163" s="33"/>
-      <c r="AR163" s="33"/>
-      <c r="AS163" s="33"/>
-      <c r="AT163" s="33"/>
-      <c r="AU163" s="33"/>
-      <c r="AV163" s="33"/>
-      <c r="AW163" s="33"/>
-      <c r="AX163" s="33"/>
-      <c r="AY163" s="33"/>
-      <c r="AZ163" s="33"/>
-      <c r="BA163" s="33"/>
-      <c r="BB163" s="33"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="32"/>
+      <c r="L163" s="32"/>
+      <c r="M163" s="32"/>
+      <c r="N163" s="32"/>
+      <c r="O163" s="32"/>
+      <c r="P163" s="32"/>
+      <c r="Q163" s="32"/>
+      <c r="R163" s="32"/>
+      <c r="S163" s="32"/>
+      <c r="T163" s="32"/>
+      <c r="U163" s="32"/>
+      <c r="V163" s="32"/>
+      <c r="W163" s="32"/>
+      <c r="X163" s="32"/>
+      <c r="Y163" s="32"/>
+      <c r="Z163" s="32"/>
+      <c r="AA163" s="32"/>
+      <c r="AB163" s="32"/>
+      <c r="AC163" s="32"/>
+      <c r="AD163" s="32"/>
+      <c r="AE163" s="32"/>
+      <c r="AF163" s="32"/>
+      <c r="AG163" s="32"/>
+      <c r="AH163" s="32"/>
+      <c r="AI163" s="32"/>
+      <c r="AJ163" s="32"/>
+      <c r="AK163" s="32"/>
+      <c r="AL163" s="32"/>
+      <c r="AM163" s="32"/>
+      <c r="AN163" s="32"/>
+      <c r="AO163" s="32"/>
+      <c r="AP163" s="32"/>
+      <c r="AQ163" s="32"/>
+      <c r="AR163" s="32"/>
+      <c r="AS163" s="32"/>
+      <c r="AT163" s="32"/>
+      <c r="AU163" s="32"/>
+      <c r="AV163" s="32"/>
+      <c r="AW163" s="32"/>
+      <c r="AX163" s="32"/>
+      <c r="AY163" s="32"/>
+      <c r="AZ163" s="32"/>
+      <c r="BA163" s="32"/>
+      <c r="BB163" s="32"/>
       <c r="BC163" s="15"/>
       <c r="BD163" s="15"/>
       <c r="BE163" s="15"/>
@@ -28321,10 +28316,10 @@
       <c r="HO163" s="15"/>
     </row>
     <row r="164" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A164" s="50" t="s">
+      <c r="A164" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="B164" s="39">
+      <c r="B164" s="34">
         <v>9066.5400000000009</v>
       </c>
       <c r="C164" s="17"/>
@@ -28555,10 +28550,10 @@
       <c r="HO164" s="15"/>
     </row>
     <row r="165" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A165" s="50" t="s">
+      <c r="A165" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="B165" s="39">
+      <c r="B165" s="34">
         <v>9873.4500000000007</v>
       </c>
       <c r="C165" s="17"/>
@@ -28789,10 +28784,10 @@
       <c r="HO165" s="15"/>
     </row>
     <row r="166" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A166" s="50" t="s">
+      <c r="A166" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="B166" s="39">
+      <c r="B166" s="34">
         <v>7778.48</v>
       </c>
       <c r="C166" s="17"/>
@@ -29023,10 +29018,12 @@
       <c r="HO166" s="15"/>
     </row>
     <row r="167" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A167" s="50" t="s">
+      <c r="A167" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="B167" s="39"/>
+      <c r="B167" s="34">
+        <v>9056.51</v>
+      </c>
       <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" si="5"/>
@@ -29035,41 +29032,41 @@
       <c r="E167" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F167" s="33"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="33"/>
-      <c r="I167" s="33"/>
-      <c r="J167" s="33"/>
-      <c r="K167" s="33"/>
-      <c r="L167" s="33"/>
-      <c r="M167" s="33"/>
-      <c r="N167" s="33"/>
-      <c r="O167" s="33"/>
-      <c r="P167" s="33"/>
-      <c r="Q167" s="33"/>
-      <c r="R167" s="33"/>
-      <c r="S167" s="33"/>
-      <c r="T167" s="33"/>
-      <c r="U167" s="33"/>
-      <c r="V167" s="33"/>
-      <c r="W167" s="33"/>
-      <c r="X167" s="33"/>
-      <c r="Y167" s="33"/>
-      <c r="Z167" s="33"/>
-      <c r="AA167" s="33"/>
-      <c r="AB167" s="33"/>
-      <c r="AC167" s="33"/>
-      <c r="AD167" s="33"/>
-      <c r="AE167" s="33"/>
-      <c r="AF167" s="33"/>
-      <c r="AG167" s="33"/>
-      <c r="AH167" s="33"/>
-      <c r="AI167" s="33"/>
-      <c r="AJ167" s="33"/>
-      <c r="AK167" s="33"/>
-      <c r="AL167" s="33"/>
-      <c r="AM167" s="33"/>
-      <c r="AN167" s="33"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32"/>
+      <c r="L167" s="32"/>
+      <c r="M167" s="32"/>
+      <c r="N167" s="32"/>
+      <c r="O167" s="32"/>
+      <c r="P167" s="32"/>
+      <c r="Q167" s="32"/>
+      <c r="R167" s="32"/>
+      <c r="S167" s="32"/>
+      <c r="T167" s="32"/>
+      <c r="U167" s="32"/>
+      <c r="V167" s="32"/>
+      <c r="W167" s="32"/>
+      <c r="X167" s="32"/>
+      <c r="Y167" s="32"/>
+      <c r="Z167" s="32"/>
+      <c r="AA167" s="32"/>
+      <c r="AB167" s="32"/>
+      <c r="AC167" s="32"/>
+      <c r="AD167" s="32"/>
+      <c r="AE167" s="32"/>
+      <c r="AF167" s="32"/>
+      <c r="AG167" s="32"/>
+      <c r="AH167" s="32"/>
+      <c r="AI167" s="32"/>
+      <c r="AJ167" s="32"/>
+      <c r="AK167" s="32"/>
+      <c r="AL167" s="32"/>
+      <c r="AM167" s="32"/>
+      <c r="AN167" s="32"/>
       <c r="AO167" s="15"/>
       <c r="AP167" s="15"/>
       <c r="AQ167" s="15"/>
@@ -29254,17 +29251,23 @@
       <c r="HN167" s="15"/>
       <c r="HO167" s="15"/>
     </row>
-    <row r="168" spans="1:223" ht="15" hidden="1" customHeight="1">
-      <c r="A168" s="50" t="s">
+    <row r="168" spans="1:223" ht="15" customHeight="1" thickBot="1">
+      <c r="A168" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="B168" s="39"/>
-      <c r="C168" s="17"/>
+      <c r="B168" s="34">
+        <v>9056.51</v>
+      </c>
+      <c r="C168" s="17">
+        <v>10</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E168" s="18"/>
+        <v>90565.1</v>
+      </c>
+      <c r="E168" s="54" t="s">
+        <v>300</v>
+      </c>
       <c r="F168" s="15"/>
       <c r="G168" s="15"/>
       <c r="H168" s="15"/>
@@ -29485,10 +29488,10 @@
       <c r="HO168" s="15"/>
     </row>
     <row r="169" spans="1:223" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A169" s="50" t="s">
+      <c r="A169" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="B169" s="39">
+      <c r="B169" s="34">
         <v>10133.07</v>
       </c>
       <c r="C169" s="17"/>
@@ -29719,68 +29722,68 @@
       <c r="HO169" s="15"/>
     </row>
     <row r="170" spans="1:223" ht="15" customHeight="1" thickBot="1">
-      <c r="A170" s="65" t="s">
+      <c r="A170" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B170" s="66"/>
-      <c r="C170" s="34">
-        <f>SUM(C5:C169)</f>
-        <v>180</v>
-      </c>
-      <c r="D170" s="35">
-        <f>SUM(D5:D169)</f>
-        <v>204006.8</v>
-      </c>
-      <c r="E170" s="36"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
-      <c r="I170" s="33"/>
-      <c r="J170" s="33"/>
-      <c r="K170" s="33"/>
-      <c r="L170" s="33"/>
-      <c r="M170" s="33"/>
-      <c r="N170" s="33"/>
-      <c r="O170" s="33"/>
-      <c r="P170" s="33"/>
-      <c r="Q170" s="33"/>
-      <c r="R170" s="33"/>
-      <c r="S170" s="33"/>
-      <c r="T170" s="33"/>
-      <c r="U170" s="33"/>
-      <c r="V170" s="33"/>
-      <c r="W170" s="33"/>
-      <c r="X170" s="33"/>
-      <c r="Y170" s="33"/>
-      <c r="Z170" s="33"/>
-      <c r="AA170" s="33"/>
-      <c r="AB170" s="33"/>
-      <c r="AC170" s="33"/>
-      <c r="AD170" s="33"/>
-      <c r="AE170" s="33"/>
-      <c r="AF170" s="33"/>
-      <c r="AG170" s="33"/>
-      <c r="AH170" s="33"/>
-      <c r="AI170" s="33"/>
-      <c r="AJ170" s="33"/>
-      <c r="AK170" s="33"/>
-      <c r="AL170" s="33"/>
-      <c r="AM170" s="33"/>
-      <c r="AN170" s="33"/>
-      <c r="AO170" s="33"/>
-      <c r="AP170" s="33"/>
-      <c r="AQ170" s="33"/>
-      <c r="AR170" s="33"/>
-      <c r="AS170" s="33"/>
-      <c r="AT170" s="33"/>
-      <c r="AU170" s="33"/>
-      <c r="AV170" s="33"/>
-      <c r="AW170" s="33"/>
-      <c r="AX170" s="33"/>
-      <c r="AY170" s="33"/>
-      <c r="AZ170" s="33"/>
-      <c r="BA170" s="33"/>
-      <c r="BB170" s="33"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="63">
+        <f>SUBTOTAL(9,C17:C169)</f>
+        <v>560</v>
+      </c>
+      <c r="D170" s="64">
+        <f>SUBTOTAL(9,D17:D169)</f>
+        <v>803618.20000000007</v>
+      </c>
+      <c r="E170" s="65"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="32"/>
+      <c r="L170" s="32"/>
+      <c r="M170" s="32"/>
+      <c r="N170" s="32"/>
+      <c r="O170" s="32"/>
+      <c r="P170" s="32"/>
+      <c r="Q170" s="32"/>
+      <c r="R170" s="32"/>
+      <c r="S170" s="32"/>
+      <c r="T170" s="32"/>
+      <c r="U170" s="32"/>
+      <c r="V170" s="32"/>
+      <c r="W170" s="32"/>
+      <c r="X170" s="32"/>
+      <c r="Y170" s="32"/>
+      <c r="Z170" s="32"/>
+      <c r="AA170" s="32"/>
+      <c r="AB170" s="32"/>
+      <c r="AC170" s="32"/>
+      <c r="AD170" s="32"/>
+      <c r="AE170" s="32"/>
+      <c r="AF170" s="32"/>
+      <c r="AG170" s="32"/>
+      <c r="AH170" s="32"/>
+      <c r="AI170" s="32"/>
+      <c r="AJ170" s="32"/>
+      <c r="AK170" s="32"/>
+      <c r="AL170" s="32"/>
+      <c r="AM170" s="32"/>
+      <c r="AN170" s="32"/>
+      <c r="AO170" s="32"/>
+      <c r="AP170" s="32"/>
+      <c r="AQ170" s="32"/>
+      <c r="AR170" s="32"/>
+      <c r="AS170" s="32"/>
+      <c r="AT170" s="32"/>
+      <c r="AU170" s="32"/>
+      <c r="AV170" s="32"/>
+      <c r="AW170" s="32"/>
+      <c r="AX170" s="32"/>
+      <c r="AY170" s="32"/>
+      <c r="AZ170" s="32"/>
+      <c r="BA170" s="32"/>
+      <c r="BB170" s="32"/>
       <c r="BC170" s="15"/>
       <c r="BD170" s="15"/>
       <c r="BE170" s="15"/>
@@ -29952,60 +29955,60 @@
       <c r="HO170" s="15"/>
     </row>
     <row r="171" spans="1:223" ht="15" customHeight="1">
-      <c r="A171" s="55"/>
-      <c r="B171" s="40"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="35"/>
       <c r="C171" s="20"/>
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="33"/>
-      <c r="K171" s="33"/>
-      <c r="L171" s="33"/>
-      <c r="M171" s="33"/>
-      <c r="N171" s="33"/>
-      <c r="O171" s="33"/>
-      <c r="P171" s="33"/>
-      <c r="Q171" s="33"/>
-      <c r="R171" s="33"/>
-      <c r="S171" s="33"/>
-      <c r="T171" s="33"/>
-      <c r="U171" s="33"/>
-      <c r="V171" s="33"/>
-      <c r="W171" s="33"/>
-      <c r="X171" s="33"/>
-      <c r="Y171" s="33"/>
-      <c r="Z171" s="33"/>
-      <c r="AA171" s="33"/>
-      <c r="AB171" s="33"/>
-      <c r="AC171" s="33"/>
-      <c r="AD171" s="33"/>
-      <c r="AE171" s="33"/>
-      <c r="AF171" s="33"/>
-      <c r="AG171" s="33"/>
-      <c r="AH171" s="33"/>
-      <c r="AI171" s="33"/>
-      <c r="AJ171" s="33"/>
-      <c r="AK171" s="33"/>
-      <c r="AL171" s="33"/>
-      <c r="AM171" s="33"/>
-      <c r="AN171" s="33"/>
-      <c r="AO171" s="33"/>
-      <c r="AP171" s="33"/>
-      <c r="AQ171" s="33"/>
-      <c r="AR171" s="33"/>
-      <c r="AS171" s="33"/>
-      <c r="AT171" s="33"/>
-      <c r="AU171" s="33"/>
-      <c r="AV171" s="33"/>
-      <c r="AW171" s="33"/>
-      <c r="AX171" s="33"/>
-      <c r="AY171" s="33"/>
-      <c r="AZ171" s="33"/>
-      <c r="BA171" s="33"/>
-      <c r="BB171" s="33"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="32"/>
+      <c r="L171" s="32"/>
+      <c r="M171" s="32"/>
+      <c r="N171" s="32"/>
+      <c r="O171" s="32"/>
+      <c r="P171" s="32"/>
+      <c r="Q171" s="32"/>
+      <c r="R171" s="32"/>
+      <c r="S171" s="32"/>
+      <c r="T171" s="32"/>
+      <c r="U171" s="32"/>
+      <c r="V171" s="32"/>
+      <c r="W171" s="32"/>
+      <c r="X171" s="32"/>
+      <c r="Y171" s="32"/>
+      <c r="Z171" s="32"/>
+      <c r="AA171" s="32"/>
+      <c r="AB171" s="32"/>
+      <c r="AC171" s="32"/>
+      <c r="AD171" s="32"/>
+      <c r="AE171" s="32"/>
+      <c r="AF171" s="32"/>
+      <c r="AG171" s="32"/>
+      <c r="AH171" s="32"/>
+      <c r="AI171" s="32"/>
+      <c r="AJ171" s="32"/>
+      <c r="AK171" s="32"/>
+      <c r="AL171" s="32"/>
+      <c r="AM171" s="32"/>
+      <c r="AN171" s="32"/>
+      <c r="AO171" s="32"/>
+      <c r="AP171" s="32"/>
+      <c r="AQ171" s="32"/>
+      <c r="AR171" s="32"/>
+      <c r="AS171" s="32"/>
+      <c r="AT171" s="32"/>
+      <c r="AU171" s="32"/>
+      <c r="AV171" s="32"/>
+      <c r="AW171" s="32"/>
+      <c r="AX171" s="32"/>
+      <c r="AY171" s="32"/>
+      <c r="AZ171" s="32"/>
+      <c r="BA171" s="32"/>
+      <c r="BB171" s="32"/>
       <c r="BC171" s="15"/>
       <c r="BD171" s="15"/>
       <c r="BE171" s="15"/>
@@ -30177,22 +30180,22 @@
       <c r="HO171" s="15"/>
     </row>
     <row r="172" spans="1:223" ht="9" customHeight="1" thickBot="1">
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="57"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="48"/>
     </row>
     <row r="173" spans="1:223" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B173" s="62" t="s">
+      <c r="B173" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C173" s="63"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="31"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="71"/>
+      <c r="E173" s="30"/>
     </row>
     <row r="174" spans="1:223" ht="9" customHeight="1" thickBot="1"/>
     <row r="175" spans="1:223">
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C175" s="22" t="s">
@@ -30204,11 +30207,11 @@
       <c r="E175" s="24"/>
     </row>
     <row r="176" spans="1:223" ht="15" customHeight="1">
-      <c r="B176" s="42" t="s">
+      <c r="B176" s="37" t="s">
         <v>291</v>
       </c>
       <c r="C176" s="25">
-        <v>200000</v>
+        <v>800000</v>
       </c>
       <c r="D176" s="26"/>
       <c r="E176" s="24" t="s">
@@ -30216,7 +30219,7 @@
       </c>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="42" t="s">
+      <c r="B177" s="37" t="s">
         <v>87</v>
       </c>
       <c r="C177" s="25"/>
@@ -30224,7 +30227,7 @@
       <c r="E177" s="28"/>
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1">
-      <c r="B178" s="42" t="s">
+      <c r="B178" s="37" t="s">
         <v>260</v>
       </c>
       <c r="C178" s="25"/>
@@ -30232,20 +30235,20 @@
       <c r="E178" s="24"/>
     </row>
     <row r="179" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B179" s="47" t="s">
+      <c r="B179" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C179" s="48">
+      <c r="C179" s="40">
         <f>SUM(C176:C178)</f>
-        <v>200000</v>
-      </c>
-      <c r="D179" s="49"/>
+        <v>800000</v>
+      </c>
+      <c r="D179" s="41"/>
       <c r="E179" s="29"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1"/>
     <row r="181" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E170">
+  <autoFilter ref="A4:E169">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -30287,33 +30290,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71" t="e">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -32254,10 +32257,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="67" t="s">
+      <c r="A101" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="67"/>
+      <c r="B101" s="49"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation 29.04.2021.xlsx
+++ b/Symphony/2021/Others/Requisition/Requisition of Mugdho Corporation 29.04.2021.xlsx
@@ -1937,7 +1937,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E2" s="50">
         <f ca="1">TODAY()</f>
-        <v>44340</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2844,19 +2844,17 @@
       <c r="DC11" s="14"/>
       <c r="DD11" s="14"/>
     </row>
-    <row r="12" spans="1:120" ht="15" customHeight="1">
+    <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B12" s="34">
         <v>896.24</v>
       </c>
-      <c r="C12" s="17">
-        <v>60</v>
-      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
-        <v>53774.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>269</v>
@@ -3330,37 +3328,33 @@
       <c r="DC16" s="14"/>
       <c r="DD16" s="14"/>
     </row>
-    <row r="17" spans="1:120" ht="15" customHeight="1">
+    <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B17" s="34">
         <v>916.29</v>
       </c>
-      <c r="C17" s="17">
-        <v>20</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="18">
         <f t="shared" si="0"/>
-        <v>18325.8</v>
+        <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B18" s="34">
         <v>916.29</v>
       </c>
-      <c r="C18" s="17">
-        <v>60</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>54977.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>269</v>
@@ -5305,19 +5299,17 @@
       <c r="DO35" s="15"/>
       <c r="DP35" s="15"/>
     </row>
-    <row r="36" spans="1:120" ht="15" customHeight="1">
+    <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="42" t="s">
         <v>222</v>
       </c>
       <c r="B36" s="34">
         <v>1178.8</v>
       </c>
-      <c r="C36" s="17">
-        <v>20</v>
-      </c>
+      <c r="C36" s="17"/>
       <c r="D36" s="18">
         <f t="shared" si="0"/>
-        <v>23576</v>
+        <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>269</v>
@@ -5958,19 +5950,17 @@
       <c r="DO40" s="15"/>
       <c r="DP40" s="15"/>
     </row>
-    <row r="41" spans="1:120" ht="15" customHeight="1">
+    <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B41" s="34">
         <v>1422.38</v>
       </c>
-      <c r="C41" s="17">
-        <v>20</v>
-      </c>
+      <c r="C41" s="17"/>
       <c r="D41" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>269</v>
@@ -6883,19 +6873,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="43" t="s">
         <v>275</v>
       </c>
       <c r="B49" s="34">
         <v>1066.6600000000001</v>
       </c>
-      <c r="C49" s="17">
-        <v>20</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" si="1"/>
-        <v>21333.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>269</v>
@@ -10044,19 +10032,17 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:120" ht="15" customHeight="1">
+    <row r="85" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>285</v>
       </c>
       <c r="B85" s="34">
         <v>1306.26</v>
       </c>
-      <c r="C85" s="17">
-        <v>20</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>26125.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>269</v>
@@ -11060,17 +11046,19 @@
       <c r="DO92" s="15"/>
       <c r="DP92" s="15"/>
     </row>
-    <row r="93" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="93" spans="1:120" s="14" customFormat="1">
       <c r="A93" s="43" t="s">
         <v>240</v>
       </c>
       <c r="B93" s="34">
         <v>1150.8699999999999</v>
       </c>
-      <c r="C93" s="17"/>
+      <c r="C93" s="17">
+        <v>160</v>
+      </c>
       <c r="D93" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>184139.19999999998</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>269</v>
@@ -11090,19 +11078,17 @@
       </c>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" spans="1:120" ht="15" customHeight="1">
+    <row r="95" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="43" t="s">
         <v>278</v>
       </c>
       <c r="B95" s="34">
         <v>1364.45</v>
       </c>
-      <c r="C95" s="17">
-        <v>20</v>
-      </c>
+      <c r="C95" s="17"/>
       <c r="D95" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>269</v>
@@ -11223,19 +11209,17 @@
       <c r="DO95" s="15"/>
       <c r="DP95" s="15"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="43" t="s">
         <v>283</v>
       </c>
       <c r="B96" s="34">
         <v>1403.33</v>
       </c>
-      <c r="C96" s="17">
-        <v>20</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>28066.6</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>269</v>
@@ -11616,19 +11600,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B99" s="34">
         <v>1178.94</v>
       </c>
-      <c r="C99" s="17">
-        <v>20</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="2"/>
-        <v>23578.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>269</v>
@@ -11753,19 +11735,17 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B101" s="34">
         <v>1188.82</v>
       </c>
-      <c r="C101" s="17">
-        <v>20</v>
-      </c>
+      <c r="C101" s="17"/>
       <c r="D101" s="18">
         <f t="shared" ref="D101:D132" si="3">B101*C101</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>269</v>
@@ -17905,7 +17885,7 @@
       <c r="DC155" s="14"/>
       <c r="DD155" s="14"/>
     </row>
-    <row r="156" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A156" s="42" t="s">
         <v>133</v>
       </c>
@@ -17919,7 +17899,7 @@
       </c>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="42" t="s">
         <v>247</v>
       </c>
@@ -18977,17 +18957,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A166" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B166" s="34">
         <v>7778.48</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>40</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>311139.19999999995</v>
       </c>
       <c r="E166" s="18" t="s">
         <v>269</v>
@@ -19508,11 +19490,11 @@
       <c r="B170" s="66"/>
       <c r="C170" s="51">
         <f>SUBTOTAL(9,C12:C169)</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D170" s="52">
         <f>SUBTOTAL(9,D12:D169)</f>
-        <v>329270.40000000002</v>
+        <v>495278.39999999991</v>
       </c>
       <c r="E170" s="53"/>
       <c r="F170" s="32"/>
